--- a/data/taxa_per_stage_genus.xlsx
+++ b/data/taxa_per_stage_genus.xlsx
@@ -3130,13 +3130,13 @@
         <v>139.8</v>
       </c>
       <c r="C116">
-        <v>38.80347312</v>
+        <v>10.8312831143</v>
       </c>
       <c r="D116">
-        <v>27.888885</v>
+        <v>10.26535082</v>
       </c>
       <c r="E116">
-        <v>48.317574</v>
+        <v>11.933696</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3154,13 +3154,13 @@
         <v>145</v>
       </c>
       <c r="C117">
-        <v>10.8312831143</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>10.26535082</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>11.933696</v>
+        <v>0</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3826,13 +3826,13 @@
         <v>139.8</v>
       </c>
       <c r="C145">
-        <v>6.192829755</v>
+        <v>2.15376792289</v>
       </c>
       <c r="D145">
-        <v>4.6740785</v>
+        <v>2.014544249</v>
       </c>
       <c r="E145">
-        <v>11.043692</v>
+        <v>2.4318962</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3850,13 +3850,13 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>2.15376792289</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>2.014544249</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>2.4318962</v>
+        <v>0</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -4522,13 +4522,13 @@
         <v>139.8</v>
       </c>
       <c r="C174">
-        <v>8.548970328499999</v>
+        <v>0.05599260866</v>
       </c>
       <c r="D174">
-        <v>6.0061717</v>
+        <v>0.035126686</v>
       </c>
       <c r="E174">
-        <v>15.451136</v>
+        <v>0.08903289</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4546,13 +4546,13 @@
         <v>145</v>
       </c>
       <c r="C175">
-        <v>0.05599260866</v>
+        <v>0</v>
       </c>
       <c r="D175">
-        <v>0.035126686</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>0.08903289</v>
+        <v>0</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -5194,13 +5194,13 @@
         <v>132.6</v>
       </c>
       <c r="C202">
-        <v>0.515138183105</v>
+        <v>0.0195427346755</v>
       </c>
       <c r="D202">
-        <v>0.010254025</v>
+        <v>0.001335144</v>
       </c>
       <c r="E202">
-        <v>0.7540188</v>
+        <v>0.04367757</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5218,13 +5218,13 @@
         <v>139.8</v>
       </c>
       <c r="C203">
-        <v>0.0195427346755</v>
+        <v>0.020851501239</v>
       </c>
       <c r="D203">
-        <v>0.001335144</v>
+        <v>0.00219059</v>
       </c>
       <c r="E203">
-        <v>0.04367757</v>
+        <v>0.045549035</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5242,13 +5242,13 @@
         <v>145</v>
       </c>
       <c r="C204">
-        <v>0.020851501239</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>0.00219059</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>0.045549035</v>
+        <v>0</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5914,13 +5914,13 @@
         <v>139.8</v>
       </c>
       <c r="C232">
-        <v>46.538206551</v>
+        <v>0.55667426886</v>
       </c>
       <c r="D232">
-        <v>2.6613212</v>
+        <v>0.015007973</v>
       </c>
       <c r="E232">
-        <v>61.004604</v>
+        <v>1.4638407</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5938,13 +5938,13 @@
         <v>145</v>
       </c>
       <c r="C233">
-        <v>0.55667426886</v>
+        <v>0</v>
       </c>
       <c r="D233">
-        <v>0.015007973</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>1.4638407</v>
+        <v>0</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -7306,13 +7306,13 @@
         <v>139.8</v>
       </c>
       <c r="C290">
-        <v>6.51611940125</v>
+        <v>0.12835522712</v>
       </c>
       <c r="D290">
-        <v>0.16974437</v>
+        <v>0.00442636</v>
       </c>
       <c r="E290">
-        <v>13.094209</v>
+        <v>0.5543912600000001</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7330,13 +7330,13 @@
         <v>145</v>
       </c>
       <c r="C291">
-        <v>0.12835522712</v>
+        <v>0</v>
       </c>
       <c r="D291">
-        <v>0.00442636</v>
+        <v>0</v>
       </c>
       <c r="E291">
-        <v>0.5543912600000001</v>
+        <v>0</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7978,13 +7978,13 @@
         <v>132.6</v>
       </c>
       <c r="C318">
-        <v>0.9088698652</v>
+        <v>0.43225410685</v>
       </c>
       <c r="D318">
-        <v>0.2997979</v>
+        <v>0.17735398</v>
       </c>
       <c r="E318">
-        <v>1.4897909</v>
+        <v>0.64395905</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8002,13 +8002,13 @@
         <v>139.8</v>
       </c>
       <c r="C319">
-        <v>0.43225410685</v>
+        <v>0.25050832605</v>
       </c>
       <c r="D319">
-        <v>0.17735398</v>
+        <v>0.12471628</v>
       </c>
       <c r="E319">
-        <v>0.64395905</v>
+        <v>0.3501717</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8026,13 +8026,13 @@
         <v>145</v>
       </c>
       <c r="C320">
-        <v>0.25050832605</v>
+        <v>0</v>
       </c>
       <c r="D320">
-        <v>0.12471628</v>
+        <v>0</v>
       </c>
       <c r="E320">
-        <v>0.3501717</v>
+        <v>0</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>

--- a/data/taxa_per_stage_genus.xlsx
+++ b/data/taxa_per_stage_genus.xlsx
@@ -399,13 +399,13 @@
         <v>2.58</v>
       </c>
       <c r="C2">
-        <v>204.9999807</v>
+        <v>215.207535775</v>
       </c>
       <c r="D2">
-        <v>204.9999</v>
+        <v>196.34238</v>
       </c>
       <c r="E2">
-        <v>205.00008</v>
+        <v>240.97833</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -423,13 +423,13 @@
         <v>5.333</v>
       </c>
       <c r="C3">
-        <v>210.3771243</v>
+        <v>317.8326291</v>
       </c>
       <c r="D3">
-        <v>137.52026</v>
+        <v>296.67377</v>
       </c>
       <c r="E3">
-        <v>299.61142</v>
+        <v>348.56982</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -447,13 +447,13 @@
         <v>7.246</v>
       </c>
       <c r="C4">
-        <v>214.65965715</v>
+        <v>238.559297</v>
       </c>
       <c r="D4">
-        <v>163.48376</v>
+        <v>220.8798</v>
       </c>
       <c r="E4">
-        <v>293.0121</v>
+        <v>255.22885</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -471,13 +471,13 @@
         <v>11.63</v>
       </c>
       <c r="C5">
-        <v>229.4743211</v>
+        <v>243.437188325</v>
       </c>
       <c r="D5">
-        <v>168.79933</v>
+        <v>210.1279</v>
       </c>
       <c r="E5">
-        <v>317.8253</v>
+        <v>278.0274</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -495,13 +495,13 @@
         <v>13.82</v>
       </c>
       <c r="C6">
-        <v>227.1887128</v>
+        <v>242.99619585</v>
       </c>
       <c r="D6">
-        <v>160.55214</v>
+        <v>200.39128</v>
       </c>
       <c r="E6">
-        <v>305.71466</v>
+        <v>289.02765</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         <v>15.97</v>
       </c>
       <c r="C7">
-        <v>248.12540775</v>
+        <v>263.6010572</v>
       </c>
       <c r="D7">
-        <v>184.25046</v>
+        <v>233.8067</v>
       </c>
       <c r="E7">
-        <v>335.92407</v>
+        <v>305.49518</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>20.44</v>
       </c>
       <c r="C8">
-        <v>267.08592725</v>
+        <v>279.5181849</v>
       </c>
       <c r="D8">
-        <v>195.09883</v>
+        <v>249.85489</v>
       </c>
       <c r="E8">
-        <v>354.82217</v>
+        <v>319.36566</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         <v>23.03</v>
       </c>
       <c r="C9">
-        <v>256.962717</v>
+        <v>268.88296885</v>
       </c>
       <c r="D9">
-        <v>188.84811</v>
+        <v>237.21477</v>
       </c>
       <c r="E9">
-        <v>334.27832</v>
+        <v>305.52545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         <v>27.82</v>
       </c>
       <c r="C10">
-        <v>263.361601</v>
+        <v>270.3733356</v>
       </c>
       <c r="D10">
-        <v>193.13017</v>
+        <v>241.09238</v>
       </c>
       <c r="E10">
-        <v>353.0642</v>
+        <v>302.81985</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         <v>33.9</v>
       </c>
       <c r="C11">
-        <v>308.46591905</v>
+        <v>290.9448703</v>
       </c>
       <c r="D11">
-        <v>210.8021</v>
+        <v>253.23415</v>
       </c>
       <c r="E11">
-        <v>409.75513</v>
+        <v>322.76297</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         <v>37.71</v>
       </c>
       <c r="C12">
-        <v>370.4241486</v>
+        <v>375.396073375</v>
       </c>
       <c r="D12">
-        <v>271.6659</v>
+        <v>338.04498</v>
       </c>
       <c r="E12">
-        <v>521.78937</v>
+        <v>429.69702</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -663,13 +663,13 @@
         <v>41.2</v>
       </c>
       <c r="C13">
-        <v>407.8134134</v>
+        <v>422.570833075</v>
       </c>
       <c r="D13">
-        <v>291.67947</v>
+        <v>371.3384</v>
       </c>
       <c r="E13">
-        <v>579.13495</v>
+        <v>500.60913</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -687,13 +687,13 @@
         <v>47.8</v>
       </c>
       <c r="C14">
-        <v>441.9157363</v>
+        <v>463.08514565</v>
       </c>
       <c r="D14">
-        <v>323.76227</v>
+        <v>406.30563</v>
       </c>
       <c r="E14">
-        <v>611.29047</v>
+        <v>534.9589</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         <v>56</v>
       </c>
       <c r="C15">
-        <v>404.8166061</v>
+        <v>431.010175925</v>
       </c>
       <c r="D15">
-        <v>291.6852</v>
+        <v>372.1569</v>
       </c>
       <c r="E15">
-        <v>546.91016</v>
+        <v>487.1743</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -735,13 +735,13 @@
         <v>59.2</v>
       </c>
       <c r="C16">
-        <v>323.027375</v>
+        <v>333.139188675</v>
       </c>
       <c r="D16">
-        <v>245.29015</v>
+        <v>298.98843</v>
       </c>
       <c r="E16">
-        <v>459.1106</v>
+        <v>364.69464</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         <v>61.6</v>
       </c>
       <c r="C17">
-        <v>304.20038635</v>
+        <v>307.590583575</v>
       </c>
       <c r="D17">
-        <v>226.4294</v>
+        <v>254.9823</v>
       </c>
       <c r="E17">
-        <v>425.0007</v>
+        <v>349.6508</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -783,13 +783,13 @@
         <v>66</v>
       </c>
       <c r="C18">
-        <v>306.9292374</v>
+        <v>319.534857775</v>
       </c>
       <c r="D18">
-        <v>216.6275</v>
+        <v>279.45358</v>
       </c>
       <c r="E18">
-        <v>392.1511</v>
+        <v>365.6001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -807,13 +807,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C19">
-        <v>286.06578405</v>
+        <v>276.968451625</v>
       </c>
       <c r="D19">
-        <v>210.41624</v>
+        <v>236.37898</v>
       </c>
       <c r="E19">
-        <v>367.40274</v>
+        <v>307.18402</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C20">
-        <v>311.99135685</v>
+        <v>294.345598325</v>
       </c>
       <c r="D20">
-        <v>217.57211</v>
+        <v>261.7071</v>
       </c>
       <c r="E20">
-        <v>391.64862</v>
+        <v>324.8161</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         <v>86.3</v>
       </c>
       <c r="C21">
-        <v>283.74429605</v>
+        <v>290.131286475</v>
       </c>
       <c r="D21">
-        <v>212.36794</v>
+        <v>245.4686</v>
       </c>
       <c r="E21">
-        <v>376.02576</v>
+        <v>322.64075</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -879,13 +879,13 @@
         <v>89.8</v>
       </c>
       <c r="C22">
-        <v>259.75829435</v>
+        <v>262.750561175</v>
       </c>
       <c r="D22">
-        <v>187.21117</v>
+        <v>230.54884</v>
       </c>
       <c r="E22">
-        <v>327.34894</v>
+        <v>298.44193</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -903,13 +903,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C23">
-        <v>248.18047525</v>
+        <v>241.191975675</v>
       </c>
       <c r="D23">
-        <v>175.10461</v>
+        <v>207.30605</v>
       </c>
       <c r="E23">
-        <v>317.36026</v>
+        <v>269.81454</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -927,13 +927,13 @@
         <v>100.5</v>
       </c>
       <c r="C24">
-        <v>232.20377475</v>
+        <v>248.784741375</v>
       </c>
       <c r="D24">
-        <v>171.73354</v>
+        <v>213.37651</v>
       </c>
       <c r="E24">
-        <v>301.61807</v>
+        <v>281.42325</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -951,13 +951,13 @@
         <v>113</v>
       </c>
       <c r="C25">
-        <v>207.4971126</v>
+        <v>216.964606875</v>
       </c>
       <c r="D25">
-        <v>140.45331</v>
+        <v>180.99974</v>
       </c>
       <c r="E25">
-        <v>265.09485</v>
+        <v>251.86278</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -972,21 +972,16 @@
         </is>
       </c>
       <c r="B26">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C26">
-        <v>160.74485679</v>
+        <v>171.9485518</v>
       </c>
       <c r="D26">
-        <v>106.297134</v>
+        <v>146.09427</v>
       </c>
       <c r="E26">
-        <v>216.236</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>208.19093</v>
       </c>
     </row>
     <row r="27">
@@ -999,13 +994,13 @@
         <v>129.4</v>
       </c>
       <c r="C27">
-        <v>121.70836197</v>
+        <v>157.208574625</v>
       </c>
       <c r="D27">
-        <v>78.2873</v>
+        <v>132.09976</v>
       </c>
       <c r="E27">
-        <v>187.82558</v>
+        <v>189.38399</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1023,13 +1018,13 @@
         <v>132.6</v>
       </c>
       <c r="C28">
-        <v>140.814365035</v>
+        <v>150.05648765</v>
       </c>
       <c r="D28">
-        <v>92.44099</v>
+        <v>125.81841</v>
       </c>
       <c r="E28">
-        <v>221.40628</v>
+        <v>183.3141</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1047,13 +1042,13 @@
         <v>139.8</v>
       </c>
       <c r="C29">
-        <v>183.26946955</v>
+        <v>216.486541175</v>
       </c>
       <c r="D29">
-        <v>111.12143</v>
+        <v>191.68852</v>
       </c>
       <c r="E29">
-        <v>234.71379</v>
+        <v>270.3867</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1071,13 +1066,13 @@
         <v>145</v>
       </c>
       <c r="C30">
-        <v>64.29955040500001</v>
+        <v>143.1701341775</v>
       </c>
       <c r="D30">
-        <v>47.8696</v>
+        <v>120.42038</v>
       </c>
       <c r="E30">
-        <v>77.88575</v>
+        <v>172.03665</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1095,13 +1090,13 @@
         <v>2.58</v>
       </c>
       <c r="C31">
-        <v>99.99998567499999</v>
+        <v>93.024420245</v>
       </c>
       <c r="D31">
-        <v>99.99994</v>
+        <v>89.25799600000001</v>
       </c>
       <c r="E31">
-        <v>100.00003</v>
+        <v>98.542625</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1119,13 +1114,13 @@
         <v>5.333</v>
       </c>
       <c r="C32">
-        <v>112.58953524</v>
+        <v>145.72270625</v>
       </c>
       <c r="D32">
-        <v>52.20108999999999</v>
+        <v>128.85165</v>
       </c>
       <c r="E32">
-        <v>172.23112</v>
+        <v>174.81363</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1143,13 +1138,13 @@
         <v>7.246</v>
       </c>
       <c r="C33">
-        <v>126.12028576</v>
+        <v>120.04600866</v>
       </c>
       <c r="D33">
-        <v>75.58354</v>
+        <v>112.71693</v>
       </c>
       <c r="E33">
-        <v>170.56699</v>
+        <v>129.14732</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1167,13 +1162,13 @@
         <v>11.63</v>
       </c>
       <c r="C34">
-        <v>114.86286871</v>
+        <v>112.34291892</v>
       </c>
       <c r="D34">
-        <v>67.788506</v>
+        <v>93.80643999999999</v>
       </c>
       <c r="E34">
-        <v>153.491</v>
+        <v>133.13408</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1191,13 +1186,13 @@
         <v>13.82</v>
       </c>
       <c r="C35">
-        <v>103.561680275</v>
+        <v>102.8869321825</v>
       </c>
       <c r="D35">
-        <v>61.19519</v>
+        <v>89.043144</v>
       </c>
       <c r="E35">
-        <v>141.01581</v>
+        <v>120.52627</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1215,13 +1210,13 @@
         <v>15.97</v>
       </c>
       <c r="C36">
-        <v>109.426703485</v>
+        <v>109.0630500675</v>
       </c>
       <c r="D36">
-        <v>64.65703999999999</v>
+        <v>91.00482</v>
       </c>
       <c r="E36">
-        <v>148.95618</v>
+        <v>128.71185</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1239,13 +1234,13 @@
         <v>20.44</v>
       </c>
       <c r="C37">
-        <v>113.271177445</v>
+        <v>117.9144592175</v>
       </c>
       <c r="D37">
-        <v>70.28435500000001</v>
+        <v>98.60449</v>
       </c>
       <c r="E37">
-        <v>153.5078</v>
+        <v>137.39473</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1263,13 +1258,13 @@
         <v>23.03</v>
       </c>
       <c r="C38">
-        <v>109.848579745</v>
+        <v>114.571821415</v>
       </c>
       <c r="D38">
-        <v>69.02943399999999</v>
+        <v>97.061386</v>
       </c>
       <c r="E38">
-        <v>147.1139</v>
+        <v>134.7468</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1287,13 +1282,13 @@
         <v>27.82</v>
       </c>
       <c r="C39">
-        <v>126.025404285</v>
+        <v>121.357331875</v>
       </c>
       <c r="D39">
-        <v>76.77506</v>
+        <v>105.252686</v>
       </c>
       <c r="E39">
-        <v>177.11438</v>
+        <v>139.96808</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1311,13 +1306,13 @@
         <v>33.9</v>
       </c>
       <c r="C40">
-        <v>159.1947619</v>
+        <v>129.068453185</v>
       </c>
       <c r="D40">
-        <v>90.95408</v>
+        <v>110.96613</v>
       </c>
       <c r="E40">
-        <v>233.10483</v>
+        <v>144.37273</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1335,13 +1330,13 @@
         <v>37.71</v>
       </c>
       <c r="C41">
-        <v>175.947114095</v>
+        <v>165.407177275</v>
       </c>
       <c r="D41">
-        <v>100.17936</v>
+        <v>139.01874</v>
       </c>
       <c r="E41">
-        <v>236.08145</v>
+        <v>183.52383</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1359,13 +1354,13 @@
         <v>41.2</v>
       </c>
       <c r="C42">
-        <v>195.62980463</v>
+        <v>182.77262135</v>
       </c>
       <c r="D42">
-        <v>107.6123</v>
+        <v>151.20634</v>
       </c>
       <c r="E42">
-        <v>273.53427</v>
+        <v>199.55669</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1383,13 +1378,13 @@
         <v>47.8</v>
       </c>
       <c r="C43">
-        <v>210.58831093</v>
+        <v>198.98482135</v>
       </c>
       <c r="D43">
-        <v>114.3406</v>
+        <v>162.11224</v>
       </c>
       <c r="E43">
-        <v>321.69226</v>
+        <v>219.03117</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1407,13 +1402,13 @@
         <v>56</v>
       </c>
       <c r="C44">
-        <v>207.258821145</v>
+        <v>205.274846925</v>
       </c>
       <c r="D44">
-        <v>120.36036</v>
+        <v>179.14316</v>
       </c>
       <c r="E44">
-        <v>290.57974</v>
+        <v>222.94626</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1431,13 +1426,13 @@
         <v>59.2</v>
       </c>
       <c r="C45">
-        <v>155.52394562</v>
+        <v>151.888137775</v>
       </c>
       <c r="D45">
-        <v>86.28861999999999</v>
+        <v>125.39908</v>
       </c>
       <c r="E45">
-        <v>235.79393</v>
+        <v>168.47609</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1455,13 +1450,13 @@
         <v>61.6</v>
       </c>
       <c r="C46">
-        <v>142.88141833</v>
+        <v>147.4795813675</v>
       </c>
       <c r="D46">
-        <v>81.12705</v>
+        <v>120.838425</v>
       </c>
       <c r="E46">
-        <v>215.52881</v>
+        <v>162.82951</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1479,13 +1474,13 @@
         <v>66</v>
       </c>
       <c r="C47">
-        <v>153.30120417</v>
+        <v>153.645032175</v>
       </c>
       <c r="D47">
-        <v>86.47175</v>
+        <v>133.98174</v>
       </c>
       <c r="E47">
-        <v>225.85481</v>
+        <v>173.51823</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1503,13 +1498,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C48">
-        <v>141.615271155</v>
+        <v>152.1132652875</v>
       </c>
       <c r="D48">
-        <v>75.85044000000001</v>
+        <v>126.572495</v>
       </c>
       <c r="E48">
-        <v>223.9953</v>
+        <v>169.46358</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1527,13 +1522,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C49">
-        <v>154.05096447</v>
+        <v>151.36238722</v>
       </c>
       <c r="D49">
-        <v>84.31832</v>
+        <v>121.51176</v>
       </c>
       <c r="E49">
-        <v>233.49677</v>
+        <v>175.89378</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1551,13 +1546,13 @@
         <v>86.3</v>
       </c>
       <c r="C50">
-        <v>132.517800585</v>
+        <v>138.7480513225</v>
       </c>
       <c r="D50">
-        <v>77.994</v>
+        <v>110.2603</v>
       </c>
       <c r="E50">
-        <v>193.0628</v>
+        <v>160.49121</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1575,13 +1570,13 @@
         <v>89.8</v>
       </c>
       <c r="C51">
-        <v>128.093023885</v>
+        <v>124.94006067</v>
       </c>
       <c r="D51">
-        <v>75.53911600000001</v>
+        <v>99.54652400000001</v>
       </c>
       <c r="E51">
-        <v>186.41428</v>
+        <v>142.91632</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1599,13 +1594,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C52">
-        <v>125.819275975</v>
+        <v>115.3804337675</v>
       </c>
       <c r="D52">
-        <v>73.11817000000001</v>
+        <v>97.81050999999999</v>
       </c>
       <c r="E52">
-        <v>199.8368</v>
+        <v>129.90959</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1623,13 +1618,13 @@
         <v>100.5</v>
       </c>
       <c r="C53">
-        <v>103.458628885</v>
+        <v>121.4426579025</v>
       </c>
       <c r="D53">
-        <v>62.447674</v>
+        <v>100.7261</v>
       </c>
       <c r="E53">
-        <v>149.49924</v>
+        <v>140.29428</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1647,13 +1642,13 @@
         <v>113</v>
       </c>
       <c r="C54">
-        <v>74.90357677</v>
+        <v>78.73470168</v>
       </c>
       <c r="D54">
-        <v>44.886356</v>
+        <v>66.96859000000001</v>
       </c>
       <c r="E54">
-        <v>110.05301</v>
+        <v>90.40412999999999</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1668,21 +1663,16 @@
         </is>
       </c>
       <c r="B55">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C55">
-        <v>58.175728755</v>
+        <v>58.662088145</v>
       </c>
       <c r="D55">
-        <v>36.69043</v>
+        <v>51.285793</v>
       </c>
       <c r="E55">
-        <v>80.91585499999999</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>67.70692</v>
       </c>
     </row>
     <row r="56">
@@ -1695,13 +1685,13 @@
         <v>129.4</v>
       </c>
       <c r="C56">
-        <v>43.33890358</v>
+        <v>50.0498588525</v>
       </c>
       <c r="D56">
-        <v>28.674587</v>
+        <v>44.273426</v>
       </c>
       <c r="E56">
-        <v>57.673183</v>
+        <v>60.05068</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1719,13 +1709,13 @@
         <v>132.6</v>
       </c>
       <c r="C57">
-        <v>40.07007732</v>
+        <v>38.3946909075</v>
       </c>
       <c r="D57">
-        <v>26.636465</v>
+        <v>33.36028</v>
       </c>
       <c r="E57">
-        <v>54.503212</v>
+        <v>46.64469</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1743,13 +1733,13 @@
         <v>139.8</v>
       </c>
       <c r="C58">
-        <v>35.65732427</v>
+        <v>36.2742711525</v>
       </c>
       <c r="D58">
-        <v>24.243742</v>
+        <v>31.168457</v>
       </c>
       <c r="E58">
-        <v>50.06951</v>
+        <v>45.448307</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1767,13 +1757,13 @@
         <v>145</v>
       </c>
       <c r="C59">
-        <v>18.39368092</v>
+        <v>29.286920655</v>
       </c>
       <c r="D59">
-        <v>13.291924</v>
+        <v>23.837147</v>
       </c>
       <c r="E59">
-        <v>23.965286</v>
+        <v>35.956833</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1784,20 +1774,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B60">
         <v>2.58</v>
       </c>
       <c r="C60">
-        <v>105.00001365</v>
+        <v>111.66291402</v>
       </c>
       <c r="D60">
-        <v>104.99997</v>
+        <v>101.84074</v>
       </c>
       <c r="E60">
-        <v>105.00006</v>
+        <v>116.303795</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1808,20 +1798,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B61">
         <v>5.333</v>
       </c>
       <c r="C61">
-        <v>116.028295115</v>
+        <v>161.559105875</v>
       </c>
       <c r="D61">
-        <v>100.5639</v>
+        <v>139.68283</v>
       </c>
       <c r="E61">
-        <v>129.66399</v>
+        <v>183.14658</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1832,20 +1822,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B62">
         <v>7.246</v>
       </c>
       <c r="C62">
-        <v>127.29728599</v>
+        <v>124.05871812</v>
       </c>
       <c r="D62">
-        <v>110.76418</v>
+        <v>108.60022</v>
       </c>
       <c r="E62">
-        <v>150.29446</v>
+        <v>134.40701</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -1856,20 +1846,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B63">
         <v>11.63</v>
       </c>
       <c r="C63">
-        <v>133.56059701</v>
+        <v>140.5499372925</v>
       </c>
       <c r="D63">
-        <v>116.69801</v>
+        <v>120.93926</v>
       </c>
       <c r="E63">
-        <v>157.99199</v>
+        <v>155.53197</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -1880,20 +1870,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B64">
         <v>13.82</v>
       </c>
       <c r="C64">
-        <v>138.35593536</v>
+        <v>151.226721725</v>
       </c>
       <c r="D64">
-        <v>118.204544</v>
+        <v>130.17215</v>
       </c>
       <c r="E64">
-        <v>164.10107</v>
+        <v>167.45963</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -1904,20 +1894,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B65">
         <v>15.97</v>
       </c>
       <c r="C65">
-        <v>146.0878856</v>
+        <v>160.89890175</v>
       </c>
       <c r="D65">
-        <v>121.3808</v>
+        <v>141.01622</v>
       </c>
       <c r="E65">
-        <v>177.40288</v>
+        <v>177.3811</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -1928,20 +1918,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B66">
         <v>20.44</v>
       </c>
       <c r="C66">
-        <v>150.68702375</v>
+        <v>171.722322075</v>
       </c>
       <c r="D66">
-        <v>129.38492</v>
+        <v>146.44559</v>
       </c>
       <c r="E66">
-        <v>181.4949</v>
+        <v>188.29968</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -1952,20 +1942,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B67">
         <v>23.03</v>
       </c>
       <c r="C67">
-        <v>150.71170037</v>
+        <v>171.0974258</v>
       </c>
       <c r="D67">
-        <v>127.721924</v>
+        <v>149.5402</v>
       </c>
       <c r="E67">
-        <v>178.12358</v>
+        <v>188.50523</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -1976,20 +1966,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B68">
         <v>27.82</v>
       </c>
       <c r="C68">
-        <v>151.47817855</v>
+        <v>170.080610375</v>
       </c>
       <c r="D68">
-        <v>129.73868</v>
+        <v>150.22824</v>
       </c>
       <c r="E68">
-        <v>182.8681</v>
+        <v>184.39574</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2000,20 +1990,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B69">
         <v>33.9</v>
       </c>
       <c r="C69">
-        <v>170.5953074</v>
+        <v>182.93111205</v>
       </c>
       <c r="D69">
-        <v>145.63158</v>
+        <v>161.40631</v>
       </c>
       <c r="E69">
-        <v>214.91536</v>
+        <v>200.95839</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2024,20 +2014,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B70">
         <v>37.71</v>
       </c>
       <c r="C70">
-        <v>201.59252355</v>
+        <v>231.5144931</v>
       </c>
       <c r="D70">
-        <v>165.97499</v>
+        <v>204.51088</v>
       </c>
       <c r="E70">
-        <v>261.12247</v>
+        <v>259.26462</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2048,20 +2038,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B71">
         <v>41.2</v>
       </c>
       <c r="C71">
-        <v>219.89747365</v>
+        <v>260.67824955</v>
       </c>
       <c r="D71">
-        <v>183.25908</v>
+        <v>225.09712</v>
       </c>
       <c r="E71">
-        <v>286.13327</v>
+        <v>306.58273</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2072,20 +2062,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B72">
         <v>47.8</v>
       </c>
       <c r="C72">
-        <v>235.50496535</v>
+        <v>282.908443575</v>
       </c>
       <c r="D72">
-        <v>182.39394</v>
+        <v>250.94951</v>
       </c>
       <c r="E72">
-        <v>293.38483</v>
+        <v>317.86008</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2096,20 +2086,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B73">
         <v>56</v>
       </c>
       <c r="C73">
-        <v>209.8468926</v>
+        <v>252.291008275</v>
       </c>
       <c r="D73">
-        <v>169.28282</v>
+        <v>228.05133</v>
       </c>
       <c r="E73">
-        <v>259.3365</v>
+        <v>280.49396</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2120,20 +2110,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B74">
         <v>59.2</v>
       </c>
       <c r="C74">
-        <v>165.91024555</v>
+        <v>195.923857475</v>
       </c>
       <c r="D74">
-        <v>135.96599</v>
+        <v>177.73854</v>
       </c>
       <c r="E74">
-        <v>204.99852</v>
+        <v>213.03639</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2144,20 +2134,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B75">
         <v>61.6</v>
       </c>
       <c r="C75">
-        <v>165.3811134</v>
+        <v>193.2650929</v>
       </c>
       <c r="D75">
-        <v>135.64197</v>
+        <v>167.47433</v>
       </c>
       <c r="E75">
-        <v>217.43675</v>
+        <v>211.95871</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2168,20 +2158,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B76">
         <v>66</v>
       </c>
       <c r="C76">
-        <v>166.30139945</v>
+        <v>201.967601875</v>
       </c>
       <c r="D76">
-        <v>138.5342</v>
+        <v>184.6869</v>
       </c>
       <c r="E76">
-        <v>204.1012</v>
+        <v>228.07362</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2192,20 +2182,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B77">
         <v>72.09999999999999</v>
       </c>
       <c r="C77">
-        <v>146.7073787</v>
+        <v>191.9363073</v>
       </c>
       <c r="D77">
-        <v>124.659</v>
+        <v>170.06035</v>
       </c>
       <c r="E77">
-        <v>172.43762</v>
+        <v>230.33629</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2216,20 +2206,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B78">
         <v>83.59999999999999</v>
       </c>
       <c r="C78">
-        <v>163.444662</v>
+        <v>212.6447312</v>
       </c>
       <c r="D78">
-        <v>141.70366</v>
+        <v>198.6882</v>
       </c>
       <c r="E78">
-        <v>195.2428</v>
+        <v>228.82362</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2240,20 +2230,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B79">
         <v>86.3</v>
       </c>
       <c r="C79">
-        <v>147.496724375</v>
+        <v>202.42816215</v>
       </c>
       <c r="D79">
-        <v>120.487144</v>
+        <v>177.56715</v>
       </c>
       <c r="E79">
-        <v>170.54736</v>
+        <v>223.72928</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2264,20 +2254,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B80">
         <v>89.8</v>
       </c>
       <c r="C80">
-        <v>131.911331915</v>
+        <v>165.739512825</v>
       </c>
       <c r="D80">
-        <v>114.841125</v>
+        <v>144.07738</v>
       </c>
       <c r="E80">
-        <v>151.39087</v>
+        <v>191.92397</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2288,20 +2278,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B81">
         <v>93.90000000000001</v>
       </c>
       <c r="C81">
-        <v>128.870520755</v>
+        <v>175.338496375</v>
       </c>
       <c r="D81">
-        <v>109.229836</v>
+        <v>147.06235</v>
       </c>
       <c r="E81">
-        <v>149.87488</v>
+        <v>200.16342</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2312,20 +2302,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B82">
         <v>100.5</v>
       </c>
       <c r="C82">
-        <v>127.984377025</v>
+        <v>191.904582175</v>
       </c>
       <c r="D82">
-        <v>110.418625</v>
+        <v>169.66634</v>
       </c>
       <c r="E82">
-        <v>154.48123</v>
+        <v>215.92867</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2336,20 +2326,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B83">
         <v>113</v>
       </c>
       <c r="C83">
-        <v>118.27260158</v>
+        <v>168.207713975</v>
       </c>
       <c r="D83">
-        <v>105.5871</v>
+        <v>156.73598</v>
       </c>
       <c r="E83">
-        <v>135.30722</v>
+        <v>182.34471</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2360,44 +2350,39 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B84">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C84">
-        <v>93.80324846000001</v>
+        <v>125.4800389125</v>
       </c>
       <c r="D84">
-        <v>83.580536</v>
+        <v>100.36807</v>
       </c>
       <c r="E84">
-        <v>105.569916</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>156.87857</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B85">
         <v>129.4</v>
       </c>
       <c r="C85">
-        <v>70.72536666000001</v>
+        <v>112.782509295</v>
       </c>
       <c r="D85">
-        <v>60.824013</v>
+        <v>77.20435999999999</v>
       </c>
       <c r="E85">
-        <v>92.73481</v>
+        <v>151.65291</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2408,20 +2393,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B86">
         <v>132.6</v>
       </c>
       <c r="C86">
-        <v>78.906173235</v>
+        <v>127.224599105</v>
       </c>
       <c r="D86">
-        <v>64.14501</v>
+        <v>77.789925</v>
       </c>
       <c r="E86">
-        <v>148.8513</v>
+        <v>191.19052</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2432,43 +2417,48 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B87">
-        <v>139</v>
+        <v>139.8</v>
       </c>
       <c r="C87">
-        <v>125.308682375</v>
+        <v>170.7710508275</v>
       </c>
       <c r="D87">
-        <v>76.16374</v>
+        <v>122.91205</v>
       </c>
       <c r="E87">
-        <v>147.4564</v>
+        <v>211.12796</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Valanginian</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Selachii</t>
+          <t>Selachimorpha</t>
         </is>
       </c>
       <c r="B88">
-        <v>139.8</v>
+        <v>145</v>
       </c>
       <c r="C88">
-        <v>0.62231539062365</v>
+        <v>13.40114213625</v>
       </c>
       <c r="D88">
-        <v>0.00070238113</v>
+        <v>7.6023855</v>
       </c>
       <c r="E88">
-        <v>2.6141732</v>
+        <v>19.10416</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Valanginian</t>
+          <t>Berriasian</t>
         </is>
       </c>
     </row>
@@ -2482,13 +2472,13 @@
         <v>2.58</v>
       </c>
       <c r="C89">
-        <v>50.99999602</v>
+        <v>52.7911866925</v>
       </c>
       <c r="D89">
-        <v>50.999985</v>
+        <v>44.404213</v>
       </c>
       <c r="E89">
-        <v>51.000008</v>
+        <v>57.419453</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2506,13 +2496,13 @@
         <v>5.333</v>
       </c>
       <c r="C90">
-        <v>55.67979068</v>
+        <v>72.32745834249999</v>
       </c>
       <c r="D90">
-        <v>44.06815</v>
+        <v>57.37014</v>
       </c>
       <c r="E90">
-        <v>69.73369599999999</v>
+        <v>82.90347</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2530,13 +2520,13 @@
         <v>7.246</v>
       </c>
       <c r="C91">
-        <v>61.210758925</v>
+        <v>58.83263817</v>
       </c>
       <c r="D91">
-        <v>52.270798</v>
+        <v>44.921825</v>
       </c>
       <c r="E91">
-        <v>73.601044</v>
+        <v>68.64501</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2554,13 +2544,13 @@
         <v>11.63</v>
       </c>
       <c r="C92">
-        <v>60.71640592</v>
+        <v>61.04594474</v>
       </c>
       <c r="D92">
-        <v>52.051487</v>
+        <v>45.471333</v>
       </c>
       <c r="E92">
-        <v>71.199547</v>
+        <v>73.80068</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2578,13 +2568,13 @@
         <v>13.82</v>
       </c>
       <c r="C93">
-        <v>59.669911285</v>
+        <v>57.486955205</v>
       </c>
       <c r="D93">
-        <v>49.59277</v>
+        <v>44.793884</v>
       </c>
       <c r="E93">
-        <v>71.42544599999999</v>
+        <v>71.06533</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2602,13 +2592,13 @@
         <v>15.97</v>
       </c>
       <c r="C94">
-        <v>60.849439695</v>
+        <v>61.7549854325</v>
       </c>
       <c r="D94">
-        <v>49.8253</v>
+        <v>47.484684</v>
       </c>
       <c r="E94">
-        <v>71.778915</v>
+        <v>76.89279000000001</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2626,13 +2616,13 @@
         <v>20.44</v>
       </c>
       <c r="C95">
-        <v>62.461859</v>
+        <v>64.720562145</v>
       </c>
       <c r="D95">
-        <v>51.804222</v>
+        <v>50.232174</v>
       </c>
       <c r="E95">
-        <v>75.00623999999999</v>
+        <v>81.37788</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2650,13 +2640,13 @@
         <v>23.03</v>
       </c>
       <c r="C96">
-        <v>60.484134015</v>
+        <v>60.607802405</v>
       </c>
       <c r="D96">
-        <v>50.30647</v>
+        <v>45.367012</v>
       </c>
       <c r="E96">
-        <v>74.24020400000001</v>
+        <v>79.08924</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2674,13 +2664,13 @@
         <v>27.82</v>
       </c>
       <c r="C97">
-        <v>58.887757055</v>
+        <v>57.3579454525</v>
       </c>
       <c r="D97">
-        <v>48.27901</v>
+        <v>44.510284</v>
       </c>
       <c r="E97">
-        <v>73.60804</v>
+        <v>71.85942</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2698,13 +2688,13 @@
         <v>33.9</v>
       </c>
       <c r="C98">
-        <v>64.051623385</v>
+        <v>61.90687623</v>
       </c>
       <c r="D98">
-        <v>52.399303</v>
+        <v>47.66454</v>
       </c>
       <c r="E98">
-        <v>82.53780999999999</v>
+        <v>77.636635</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2722,13 +2712,13 @@
         <v>37.71</v>
       </c>
       <c r="C99">
-        <v>75.231475315</v>
+        <v>88.430003325</v>
       </c>
       <c r="D99">
-        <v>59.80124</v>
+        <v>66.34653</v>
       </c>
       <c r="E99">
-        <v>89.67555</v>
+        <v>111.51659</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2746,13 +2736,13 @@
         <v>41.2</v>
       </c>
       <c r="C100">
-        <v>72.64108043</v>
+        <v>87.43341273</v>
       </c>
       <c r="D100">
-        <v>56.53972</v>
+        <v>66.21454</v>
       </c>
       <c r="E100">
-        <v>89.54192999999999</v>
+        <v>112.95359</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2770,13 +2760,13 @@
         <v>47.8</v>
       </c>
       <c r="C101">
-        <v>75.01845482</v>
+        <v>91.97711977</v>
       </c>
       <c r="D101">
-        <v>59.758835</v>
+        <v>70.74218999999999</v>
       </c>
       <c r="E101">
-        <v>94.085266</v>
+        <v>117.60575</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2794,13 +2784,13 @@
         <v>56</v>
       </c>
       <c r="C102">
-        <v>74.357267585</v>
+        <v>94.56491719749999</v>
       </c>
       <c r="D102">
-        <v>59.304493</v>
+        <v>73.82773</v>
       </c>
       <c r="E102">
-        <v>90.33774</v>
+        <v>118.11596</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2818,13 +2808,13 @@
         <v>59.2</v>
       </c>
       <c r="C103">
-        <v>60.784845835</v>
+        <v>71.40318762</v>
       </c>
       <c r="D103">
-        <v>49.54602</v>
+        <v>57.725502</v>
       </c>
       <c r="E103">
-        <v>73.964596</v>
+        <v>87.82693999999999</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2842,13 +2832,13 @@
         <v>61.6</v>
       </c>
       <c r="C104">
-        <v>54.246762615</v>
+        <v>59.51640043</v>
       </c>
       <c r="D104">
-        <v>43.32525</v>
+        <v>43.545734</v>
       </c>
       <c r="E104">
-        <v>68.34497</v>
+        <v>75.60012999999999</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2866,13 +2856,13 @@
         <v>66</v>
       </c>
       <c r="C105">
-        <v>49.939637575</v>
+        <v>56.715769105</v>
       </c>
       <c r="D105">
-        <v>40.728634</v>
+        <v>44.52427</v>
       </c>
       <c r="E105">
-        <v>62.148876</v>
+        <v>71.06268</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2890,13 +2880,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C106">
-        <v>43.434419565</v>
+        <v>41.9082465575</v>
       </c>
       <c r="D106">
-        <v>33.81767</v>
+        <v>30.215004</v>
       </c>
       <c r="E106">
-        <v>54.419563</v>
+        <v>54.43505</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2914,13 +2904,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C107">
-        <v>52.875816945</v>
+        <v>55.4819212175</v>
       </c>
       <c r="D107">
-        <v>46.317371</v>
+        <v>43.067886</v>
       </c>
       <c r="E107">
-        <v>61.30385</v>
+        <v>68.31903</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2938,13 +2928,13 @@
         <v>86.3</v>
       </c>
       <c r="C108">
-        <v>48.602807285</v>
+        <v>52.300776615</v>
       </c>
       <c r="D108">
-        <v>42.983803</v>
+        <v>39.898384</v>
       </c>
       <c r="E108">
-        <v>56.701878</v>
+        <v>64.73435000000001</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -2962,13 +2952,13 @@
         <v>89.8</v>
       </c>
       <c r="C109">
-        <v>44.5137408</v>
+        <v>43.76850433</v>
       </c>
       <c r="D109">
-        <v>38.673439</v>
+        <v>32.079895</v>
       </c>
       <c r="E109">
-        <v>53.111134</v>
+        <v>53.44614</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2986,13 +2976,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C110">
-        <v>40.39898769</v>
+        <v>36.2955667675</v>
       </c>
       <c r="D110">
-        <v>36.520798</v>
+        <v>28.157589</v>
       </c>
       <c r="E110">
-        <v>47.834377</v>
+        <v>43.078068</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3010,13 +3000,13 @@
         <v>100.5</v>
       </c>
       <c r="C111">
-        <v>37.502457705</v>
+        <v>31.1069414</v>
       </c>
       <c r="D111">
-        <v>34.135849</v>
+        <v>24.99073</v>
       </c>
       <c r="E111">
-        <v>41.565363</v>
+        <v>36.622147</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3034,13 +3024,13 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>37.454496895</v>
+        <v>30.84431315</v>
       </c>
       <c r="D112">
-        <v>33.230742</v>
+        <v>25.66342</v>
       </c>
       <c r="E112">
-        <v>42.368984</v>
+        <v>36.146023</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3055,21 +3045,16 @@
         </is>
       </c>
       <c r="B113">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C113">
-        <v>30.6135851175</v>
+        <v>23.1440577025</v>
       </c>
       <c r="D113">
-        <v>27.59762</v>
+        <v>19.38747</v>
       </c>
       <c r="E113">
-        <v>35.183163</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>27.637104</v>
       </c>
     </row>
     <row r="114">
@@ -3082,13 +3067,13 @@
         <v>129.4</v>
       </c>
       <c r="C114">
-        <v>27.338687245</v>
+        <v>22.8785934275</v>
       </c>
       <c r="D114">
-        <v>24.511334</v>
+        <v>19.685505</v>
       </c>
       <c r="E114">
-        <v>35.001644</v>
+        <v>27.918953</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3106,13 +3091,13 @@
         <v>132.6</v>
       </c>
       <c r="C115">
-        <v>32.48448074</v>
+        <v>27.639416935</v>
       </c>
       <c r="D115">
-        <v>28.153945</v>
+        <v>22.101664</v>
       </c>
       <c r="E115">
-        <v>48.714577</v>
+        <v>36.033703</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3130,13 +3115,13 @@
         <v>139.8</v>
       </c>
       <c r="C116">
-        <v>10.8312831143</v>
+        <v>60.933388575</v>
       </c>
       <c r="D116">
-        <v>10.26535082</v>
+        <v>49.789555</v>
       </c>
       <c r="E116">
-        <v>11.933696</v>
+        <v>78.25093</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3154,13 +3139,13 @@
         <v>145</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>66.43349227749999</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>53.416172</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>76.85799400000001</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3178,13 +3163,13 @@
         <v>2.58</v>
       </c>
       <c r="C118">
-        <v>4.0000003</v>
+        <v>10.83184724175</v>
       </c>
       <c r="D118">
-        <v>3.9999995</v>
+        <v>6.0204782</v>
       </c>
       <c r="E118">
-        <v>4.0000005</v>
+        <v>16.433813</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3202,13 +3187,13 @@
         <v>5.333</v>
       </c>
       <c r="C119">
-        <v>4.227354486</v>
+        <v>12.39907786275</v>
       </c>
       <c r="D119">
-        <v>3.8378897</v>
+        <v>7.845229</v>
       </c>
       <c r="E119">
-        <v>5.2532406</v>
+        <v>18.823246</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3226,13 +3211,13 @@
         <v>7.246</v>
       </c>
       <c r="C120">
-        <v>3.9737497105</v>
+        <v>11.2601711585</v>
       </c>
       <c r="D120">
-        <v>3.4227653</v>
+        <v>7.115546</v>
       </c>
       <c r="E120">
-        <v>5.4706526</v>
+        <v>18.834833</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3250,13 +3235,13 @@
         <v>11.63</v>
       </c>
       <c r="C121">
-        <v>3.992785156</v>
+        <v>11.32906779825</v>
       </c>
       <c r="D121">
-        <v>3.42346</v>
+        <v>7.3254395</v>
       </c>
       <c r="E121">
-        <v>5.449088</v>
+        <v>18.11149</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3274,13 +3259,13 @@
         <v>13.82</v>
       </c>
       <c r="C122">
-        <v>4.0982881745</v>
+        <v>12.292053809</v>
       </c>
       <c r="D122">
-        <v>3.5329127</v>
+        <v>7.450057</v>
       </c>
       <c r="E122">
-        <v>6.096857</v>
+        <v>20.052088</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3298,13 +3283,13 @@
         <v>15.97</v>
       </c>
       <c r="C123">
-        <v>4.147203615</v>
+        <v>12.48597715375</v>
       </c>
       <c r="D123">
-        <v>3.5356832</v>
+        <v>8.101661999999999</v>
       </c>
       <c r="E123">
-        <v>6.242257</v>
+        <v>19.477446</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3322,13 +3307,13 @@
         <v>20.44</v>
       </c>
       <c r="C124">
-        <v>4.103918381</v>
+        <v>12.82147263375</v>
       </c>
       <c r="D124">
-        <v>3.5448408</v>
+        <v>8.314024</v>
       </c>
       <c r="E124">
-        <v>6.3299627</v>
+        <v>20.31962</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3346,13 +3331,13 @@
         <v>23.03</v>
       </c>
       <c r="C125">
-        <v>4.0529534665</v>
+        <v>11.76976218775</v>
       </c>
       <c r="D125">
-        <v>3.4718008</v>
+        <v>7.1634607</v>
       </c>
       <c r="E125">
-        <v>6.2569337</v>
+        <v>18.464027</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3370,13 +3355,13 @@
         <v>27.82</v>
       </c>
       <c r="C126">
-        <v>3.8321434005</v>
+        <v>10.49379232825</v>
       </c>
       <c r="D126">
-        <v>3.283186</v>
+        <v>6.768931</v>
       </c>
       <c r="E126">
-        <v>5.865243</v>
+        <v>15.976202</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3394,13 +3379,13 @@
         <v>33.9</v>
       </c>
       <c r="C127">
-        <v>3.8204815605</v>
+        <v>11.3814915455</v>
       </c>
       <c r="D127">
-        <v>3.310597</v>
+        <v>7.6733465</v>
       </c>
       <c r="E127">
-        <v>5.7421412</v>
+        <v>17.225758</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3418,13 +3403,13 @@
         <v>37.71</v>
       </c>
       <c r="C128">
-        <v>3.9012977185</v>
+        <v>11.19510649875</v>
       </c>
       <c r="D128">
-        <v>3.4236617</v>
+        <v>7.421921</v>
       </c>
       <c r="E128">
-        <v>5.847953</v>
+        <v>17.266113</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3442,13 +3427,13 @@
         <v>41.2</v>
       </c>
       <c r="C129">
-        <v>4.282395344</v>
+        <v>13.4001087275</v>
       </c>
       <c r="D129">
-        <v>3.4692006</v>
+        <v>8.765752000000001</v>
       </c>
       <c r="E129">
-        <v>7.2026825</v>
+        <v>20.913763</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3466,13 +3451,13 @@
         <v>47.8</v>
       </c>
       <c r="C130">
-        <v>4.5959377755</v>
+        <v>15.793719595</v>
       </c>
       <c r="D130">
-        <v>3.805152</v>
+        <v>11.163666</v>
       </c>
       <c r="E130">
-        <v>7.690037</v>
+        <v>24.666895</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3490,13 +3475,13 @@
         <v>56</v>
       </c>
       <c r="C131">
-        <v>4.8407787305</v>
+        <v>17.45147056</v>
       </c>
       <c r="D131">
-        <v>3.8464613</v>
+        <v>12.99923</v>
       </c>
       <c r="E131">
-        <v>8.094265999999999</v>
+        <v>27.155725</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3514,13 +3499,13 @@
         <v>59.2</v>
       </c>
       <c r="C132">
-        <v>4.718031218</v>
+        <v>17.09983408125</v>
       </c>
       <c r="D132">
-        <v>3.6633968</v>
+        <v>12.668695</v>
       </c>
       <c r="E132">
-        <v>8.312837</v>
+        <v>25.559816</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3538,13 +3523,13 @@
         <v>61.6</v>
       </c>
       <c r="C133">
-        <v>5.2819218825</v>
+        <v>19.7220748025</v>
       </c>
       <c r="D133">
-        <v>4.1924515</v>
+        <v>15.260429</v>
       </c>
       <c r="E133">
-        <v>8.997073</v>
+        <v>28.069212</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3562,13 +3547,13 @@
         <v>66</v>
       </c>
       <c r="C134">
-        <v>5.717616015</v>
+        <v>22.4617585925</v>
       </c>
       <c r="D134">
-        <v>4.467015</v>
+        <v>18.36943</v>
       </c>
       <c r="E134">
-        <v>9.534299000000001</v>
+        <v>30.324337</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3586,13 +3571,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C135">
-        <v>5.791269152</v>
+        <v>23.40194616</v>
       </c>
       <c r="D135">
-        <v>4.363155</v>
+        <v>19.130203</v>
       </c>
       <c r="E135">
-        <v>10.127368</v>
+        <v>30.807802</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3610,13 +3595,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C136">
-        <v>6.239200278</v>
+        <v>26.79667098</v>
       </c>
       <c r="D136">
-        <v>4.7785125</v>
+        <v>21.752216</v>
       </c>
       <c r="E136">
-        <v>10.927399</v>
+        <v>35.25076</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3634,13 +3619,13 @@
         <v>86.3</v>
       </c>
       <c r="C137">
-        <v>5.093128683</v>
+        <v>21.54888869</v>
       </c>
       <c r="D137">
-        <v>3.9221501</v>
+        <v>16.965641</v>
       </c>
       <c r="E137">
-        <v>8.236107000000001</v>
+        <v>29.89394</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3658,13 +3643,13 @@
         <v>89.8</v>
       </c>
       <c r="C138">
-        <v>4.6128048805</v>
+        <v>17.61320398</v>
       </c>
       <c r="D138">
-        <v>3.6582274</v>
+        <v>13.798188</v>
       </c>
       <c r="E138">
-        <v>7.453496</v>
+        <v>23.734163</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3682,13 +3667,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C139">
-        <v>4.413914189</v>
+        <v>15.50319856125</v>
       </c>
       <c r="D139">
-        <v>3.5965476</v>
+        <v>12.236864</v>
       </c>
       <c r="E139">
-        <v>6.977776</v>
+        <v>20.62607</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3706,13 +3691,13 @@
         <v>100.5</v>
       </c>
       <c r="C140">
-        <v>4.311909291</v>
+        <v>15.20416509125</v>
       </c>
       <c r="D140">
-        <v>3.542973</v>
+        <v>12.243017</v>
       </c>
       <c r="E140">
-        <v>6.808685</v>
+        <v>19.745893</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3730,13 +3715,13 @@
         <v>113</v>
       </c>
       <c r="C141">
-        <v>4.5352857655</v>
+        <v>17.50558779625</v>
       </c>
       <c r="D141">
-        <v>3.6816874</v>
+        <v>13.542449</v>
       </c>
       <c r="E141">
-        <v>6.949465</v>
+        <v>23.530165</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3751,21 +3736,16 @@
         </is>
       </c>
       <c r="B142">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C142">
-        <v>4.733728029</v>
+        <v>19.832397835</v>
       </c>
       <c r="D142">
-        <v>3.8833137</v>
+        <v>15.329279</v>
       </c>
       <c r="E142">
-        <v>7.15522</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>27.251013</v>
       </c>
     </row>
     <row r="143">
@@ -3778,13 +3758,13 @@
         <v>129.4</v>
       </c>
       <c r="C143">
-        <v>4.60695745</v>
+        <v>21.8074922075</v>
       </c>
       <c r="D143">
-        <v>3.6125479</v>
+        <v>16.115166</v>
       </c>
       <c r="E143">
-        <v>7.346738</v>
+        <v>30.233953</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3802,13 +3782,13 @@
         <v>132.6</v>
       </c>
       <c r="C144">
-        <v>5.434833773</v>
+        <v>24.183927345</v>
       </c>
       <c r="D144">
-        <v>4.2002096</v>
+        <v>18.823988</v>
       </c>
       <c r="E144">
-        <v>8.981956500000001</v>
+        <v>33.50305</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3826,13 +3806,13 @@
         <v>139.8</v>
       </c>
       <c r="C145">
-        <v>2.15376792289</v>
+        <v>32.8391332325</v>
       </c>
       <c r="D145">
-        <v>2.014544249</v>
+        <v>25.611181</v>
       </c>
       <c r="E145">
-        <v>2.4318962</v>
+        <v>42.14806</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3850,13 +3830,13 @@
         <v>145</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>36.64794591</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>28.977072</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>43.576077</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3874,13 +3854,13 @@
         <v>2.58</v>
       </c>
       <c r="C147">
-        <v>10.00000097</v>
+        <v>14.71479442625</v>
       </c>
       <c r="D147">
-        <v>9.999999000000001</v>
+        <v>11.720978</v>
       </c>
       <c r="E147">
-        <v>10.000003</v>
+        <v>17.416107</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -3898,13 +3878,13 @@
         <v>5.333</v>
       </c>
       <c r="C148">
-        <v>16.8661023125</v>
+        <v>26.08018975</v>
       </c>
       <c r="D148">
-        <v>12.212758</v>
+        <v>23.866947</v>
       </c>
       <c r="E148">
-        <v>34.5999</v>
+        <v>29.410328</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3922,13 +3902,13 @@
         <v>7.246</v>
       </c>
       <c r="C149">
-        <v>15.040141115</v>
+        <v>24.9498665775</v>
       </c>
       <c r="D149">
-        <v>11.08387</v>
+        <v>20.0915</v>
       </c>
       <c r="E149">
-        <v>30.768238</v>
+        <v>28.695726</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3946,13 +3926,13 @@
         <v>11.63</v>
       </c>
       <c r="C150">
-        <v>18.386467265</v>
+        <v>30.4798179425</v>
       </c>
       <c r="D150">
-        <v>11.59406</v>
+        <v>26.818756</v>
       </c>
       <c r="E150">
-        <v>40.0718</v>
+        <v>33.034874</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3970,13 +3950,13 @@
         <v>13.82</v>
       </c>
       <c r="C151">
-        <v>18.6893416875</v>
+        <v>33.9988486025</v>
       </c>
       <c r="D151">
-        <v>12.089742</v>
+        <v>29.023148</v>
       </c>
       <c r="E151">
-        <v>41.029957</v>
+        <v>38.85275</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3994,13 +3974,13 @@
         <v>15.97</v>
       </c>
       <c r="C152">
-        <v>19.235561355</v>
+        <v>35.76463982</v>
       </c>
       <c r="D152">
-        <v>12.1366415</v>
+        <v>31.928009</v>
       </c>
       <c r="E152">
-        <v>41.083363</v>
+        <v>40.18766</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4018,13 +3998,13 @@
         <v>20.44</v>
       </c>
       <c r="C153">
-        <v>19.9650012</v>
+        <v>38.359608175</v>
       </c>
       <c r="D153">
-        <v>12.634784</v>
+        <v>34.5812</v>
       </c>
       <c r="E153">
-        <v>42.214516</v>
+        <v>42.529583</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4042,13 +4022,13 @@
         <v>23.03</v>
       </c>
       <c r="C154">
-        <v>19.9929428</v>
+        <v>39.083710235</v>
       </c>
       <c r="D154">
-        <v>12.709159</v>
+        <v>35.985813</v>
       </c>
       <c r="E154">
-        <v>42.667515</v>
+        <v>42.70309</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4066,13 +4046,13 @@
         <v>27.82</v>
       </c>
       <c r="C155">
-        <v>22.2845808575</v>
+        <v>41.2437219525</v>
       </c>
       <c r="D155">
-        <v>13.7341</v>
+        <v>38.49347</v>
       </c>
       <c r="E155">
-        <v>47.765263</v>
+        <v>44.68565</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4090,13 +4070,13 @@
         <v>33.9</v>
       </c>
       <c r="C156">
-        <v>25.4442660375</v>
+        <v>45.741536085</v>
       </c>
       <c r="D156">
-        <v>15.6194515</v>
+        <v>43.87859</v>
       </c>
       <c r="E156">
-        <v>55.91838</v>
+        <v>48.345974</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4114,13 +4094,13 @@
         <v>37.71</v>
       </c>
       <c r="C157">
-        <v>28.04327105</v>
+        <v>53.193326445</v>
       </c>
       <c r="D157">
-        <v>17.007925</v>
+        <v>50.048912</v>
       </c>
       <c r="E157">
-        <v>63.276352</v>
+        <v>57.186146</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4138,13 +4118,13 @@
         <v>41.2</v>
       </c>
       <c r="C158">
-        <v>27.45007107</v>
+        <v>56.76637047</v>
       </c>
       <c r="D158">
-        <v>17.115763</v>
+        <v>52.31453</v>
       </c>
       <c r="E158">
-        <v>60.95806</v>
+        <v>63.895645</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4162,13 +4142,13 @@
         <v>47.8</v>
       </c>
       <c r="C159">
-        <v>30.840772135</v>
+        <v>60.28360765</v>
       </c>
       <c r="D159">
-        <v>18.349245</v>
+        <v>53.963795</v>
       </c>
       <c r="E159">
-        <v>72.60024</v>
+        <v>66.372086</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4186,13 +4166,13 @@
         <v>56</v>
       </c>
       <c r="C160">
-        <v>27.7788876</v>
+        <v>54.413929165</v>
       </c>
       <c r="D160">
-        <v>16.521406</v>
+        <v>50.20781</v>
       </c>
       <c r="E160">
-        <v>64.46456999999999</v>
+        <v>60.516335</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4210,13 +4190,13 @@
         <v>59.2</v>
       </c>
       <c r="C161">
-        <v>21.77436977</v>
+        <v>40.512278175</v>
       </c>
       <c r="D161">
-        <v>12.709617</v>
+        <v>36.031235</v>
       </c>
       <c r="E161">
-        <v>48.389256</v>
+        <v>46.06426</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4234,13 +4214,13 @@
         <v>61.6</v>
       </c>
       <c r="C162">
-        <v>20.406384145</v>
+        <v>38.59528733</v>
       </c>
       <c r="D162">
-        <v>12.426357</v>
+        <v>33.804676</v>
       </c>
       <c r="E162">
-        <v>46.395603</v>
+        <v>44.1086</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4258,13 +4238,13 @@
         <v>66</v>
       </c>
       <c r="C163">
-        <v>20.0644486275</v>
+        <v>39.38047688</v>
       </c>
       <c r="D163">
-        <v>12.331338</v>
+        <v>33.671303</v>
       </c>
       <c r="E163">
-        <v>42.08792</v>
+        <v>46.31709</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4282,13 +4262,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C164">
-        <v>19.87403046</v>
+        <v>35.2395403575</v>
       </c>
       <c r="D164">
-        <v>12.12784</v>
+        <v>30.434288</v>
       </c>
       <c r="E164">
-        <v>41.383472</v>
+        <v>39.3731</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4306,13 +4286,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C165">
-        <v>25.80328056</v>
+        <v>38.763761935</v>
       </c>
       <c r="D165">
-        <v>14.885399</v>
+        <v>33.644768</v>
       </c>
       <c r="E165">
-        <v>58.710735</v>
+        <v>42.89609</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4330,13 +4310,13 @@
         <v>86.3</v>
       </c>
       <c r="C166">
-        <v>24.679266915</v>
+        <v>41.431780935</v>
       </c>
       <c r="D166">
-        <v>14.981025</v>
+        <v>36.80743</v>
       </c>
       <c r="E166">
-        <v>57.89168</v>
+        <v>45.997448</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4354,13 +4334,13 @@
         <v>89.8</v>
       </c>
       <c r="C167">
-        <v>27.0818300725</v>
+        <v>47.488951965</v>
       </c>
       <c r="D167">
-        <v>15.6459675</v>
+        <v>40.980564</v>
       </c>
       <c r="E167">
-        <v>62.954453</v>
+        <v>52.898582</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4378,13 +4358,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C168">
-        <v>28.566490165</v>
+        <v>52.6815484975</v>
       </c>
       <c r="D168">
-        <v>15.901001</v>
+        <v>45.029335</v>
       </c>
       <c r="E168">
-        <v>68.343025</v>
+        <v>58.1321</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4402,13 +4382,13 @@
         <v>100.5</v>
       </c>
       <c r="C169">
-        <v>27.71307187</v>
+        <v>52.515423535</v>
       </c>
       <c r="D169">
-        <v>16.164297</v>
+        <v>45.377487</v>
       </c>
       <c r="E169">
-        <v>64.17158000000001</v>
+        <v>57.852207</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4426,13 +4406,13 @@
         <v>113</v>
       </c>
       <c r="C170">
-        <v>23.8585351</v>
+        <v>45.046125</v>
       </c>
       <c r="D170">
-        <v>14.219954</v>
+        <v>39.69769</v>
       </c>
       <c r="E170">
-        <v>54.371513</v>
+        <v>52.05827</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4447,21 +4427,16 @@
         </is>
       </c>
       <c r="B171">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C171">
-        <v>15.6567649025</v>
+        <v>23.0947353125</v>
       </c>
       <c r="D171">
-        <v>9.7312765</v>
+        <v>19.92666</v>
       </c>
       <c r="E171">
-        <v>33.642876</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>27.328802</v>
       </c>
     </row>
     <row r="172">
@@ -4474,13 +4449,13 @@
         <v>129.4</v>
       </c>
       <c r="C172">
-        <v>11.608220008</v>
+        <v>14.68575441</v>
       </c>
       <c r="D172">
-        <v>7.560796</v>
+        <v>11.890255</v>
       </c>
       <c r="E172">
-        <v>22.740793</v>
+        <v>18.492125</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4498,13 +4473,13 @@
         <v>132.6</v>
       </c>
       <c r="C173">
-        <v>10.6900057975</v>
+        <v>8.800490116000001</v>
       </c>
       <c r="D173">
-        <v>7.3432837</v>
+        <v>6.9003906</v>
       </c>
       <c r="E173">
-        <v>20.697086</v>
+        <v>11.532585</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -4522,13 +4497,13 @@
         <v>139.8</v>
       </c>
       <c r="C174">
-        <v>0.05599260866</v>
+        <v>4.45075021775</v>
       </c>
       <c r="D174">
-        <v>0.035126686</v>
+        <v>3.526733</v>
       </c>
       <c r="E174">
-        <v>0.08903289</v>
+        <v>5.7224035</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4546,13 +4521,13 @@
         <v>145</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>0.020544694065</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>0.009749888999999999</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>0.037068367</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4570,13 +4545,13 @@
         <v>2.58</v>
       </c>
       <c r="C176">
-        <v>35.9999936</v>
+        <v>29.7656281825</v>
       </c>
       <c r="D176">
-        <v>35.99999</v>
+        <v>19.815573</v>
       </c>
       <c r="E176">
-        <v>36.000004</v>
+        <v>38.54621</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4594,13 +4569,13 @@
         <v>5.333</v>
       </c>
       <c r="C177">
-        <v>43.68936253</v>
+        <v>54.985053735</v>
       </c>
       <c r="D177">
-        <v>22.296577</v>
+        <v>45.09514</v>
       </c>
       <c r="E177">
-        <v>68.54484600000001</v>
+        <v>70.897415</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4618,13 +4593,13 @@
         <v>7.246</v>
       </c>
       <c r="C178">
-        <v>48.867044975</v>
+        <v>49.4777371875</v>
       </c>
       <c r="D178">
-        <v>29.637287</v>
+        <v>41.911148</v>
       </c>
       <c r="E178">
-        <v>76.57857</v>
+        <v>61.022057</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4642,13 +4617,13 @@
         <v>11.63</v>
       </c>
       <c r="C179">
-        <v>49.32348368</v>
+        <v>48.4398154075</v>
       </c>
       <c r="D179">
-        <v>29.700998</v>
+        <v>42.44612</v>
       </c>
       <c r="E179">
-        <v>73.87769</v>
+        <v>57.72402</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4666,13 +4641,13 @@
         <v>13.82</v>
       </c>
       <c r="C180">
-        <v>51.30083611</v>
+        <v>48.551463645</v>
       </c>
       <c r="D180">
-        <v>30.669956</v>
+        <v>43.519127</v>
       </c>
       <c r="E180">
-        <v>75.42856999999999</v>
+        <v>56.027103</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4690,13 +4665,13 @@
         <v>15.97</v>
       </c>
       <c r="C181">
-        <v>55.38371903</v>
+        <v>52.9389386225</v>
       </c>
       <c r="D181">
-        <v>32.50831</v>
+        <v>48.009804</v>
       </c>
       <c r="E181">
-        <v>86.1186</v>
+        <v>61.33283</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4714,13 +4689,13 @@
         <v>20.44</v>
       </c>
       <c r="C182">
-        <v>57.803326415</v>
+        <v>54.2345606775</v>
       </c>
       <c r="D182">
-        <v>33.844913</v>
+        <v>50.054916</v>
       </c>
       <c r="E182">
-        <v>90.98613</v>
+        <v>60.412346</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4738,13 +4713,13 @@
         <v>23.03</v>
       </c>
       <c r="C183">
-        <v>55.0148548</v>
+        <v>53.0641114225</v>
       </c>
       <c r="D183">
-        <v>30.017632</v>
+        <v>46.87864</v>
       </c>
       <c r="E183">
-        <v>82.7162</v>
+        <v>60.270195</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4762,13 +4737,13 @@
         <v>27.82</v>
       </c>
       <c r="C184">
-        <v>58.153116875</v>
+        <v>54.0425558875</v>
       </c>
       <c r="D184">
-        <v>33.220585</v>
+        <v>48.09603</v>
       </c>
       <c r="E184">
-        <v>94.51896000000001</v>
+        <v>62.75982</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4786,13 +4761,13 @@
         <v>33.9</v>
       </c>
       <c r="C185">
-        <v>80.38458552</v>
+        <v>60.125264005</v>
       </c>
       <c r="D185">
-        <v>41.68718</v>
+        <v>50.260715</v>
       </c>
       <c r="E185">
-        <v>124.49146</v>
+        <v>69.74338</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4810,13 +4785,13 @@
         <v>37.71</v>
       </c>
       <c r="C186">
-        <v>91.06708890500001</v>
+        <v>85.3541108875</v>
       </c>
       <c r="D186">
-        <v>50.64617</v>
+        <v>78.81973000000001</v>
       </c>
       <c r="E186">
-        <v>143.79459</v>
+        <v>91.98234600000001</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4834,13 +4809,13 @@
         <v>41.2</v>
       </c>
       <c r="C187">
-        <v>101.250667175</v>
+        <v>92.5708498775</v>
       </c>
       <c r="D187">
-        <v>54.021645</v>
+        <v>84.34526</v>
       </c>
       <c r="E187">
-        <v>169.7084</v>
+        <v>101.91349</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4858,13 +4833,13 @@
         <v>47.8</v>
       </c>
       <c r="C188">
-        <v>103.70566808</v>
+        <v>94.6114621175</v>
       </c>
       <c r="D188">
-        <v>53.863983</v>
+        <v>81.90608</v>
       </c>
       <c r="E188">
-        <v>176.77922</v>
+        <v>103.21145</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4882,13 +4857,13 @@
         <v>56</v>
       </c>
       <c r="C189">
-        <v>99.03582127999999</v>
+        <v>91.43959417000001</v>
       </c>
       <c r="D189">
-        <v>54.110844</v>
+        <v>82.94217</v>
       </c>
       <c r="E189">
-        <v>168.9825</v>
+        <v>100.20426</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4906,13 +4881,13 @@
         <v>59.2</v>
       </c>
       <c r="C190">
-        <v>70.352031795</v>
+        <v>67.18391458249999</v>
       </c>
       <c r="D190">
-        <v>38.6957</v>
+        <v>59.477303</v>
       </c>
       <c r="E190">
-        <v>116.11362</v>
+        <v>74.23929</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4930,13 +4905,13 @@
         <v>61.6</v>
       </c>
       <c r="C191">
-        <v>60.430340065</v>
+        <v>63.43244961</v>
       </c>
       <c r="D191">
-        <v>33.085693</v>
+        <v>53.997723</v>
       </c>
       <c r="E191">
-        <v>108.44918</v>
+        <v>76.14707</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4954,13 +4929,13 @@
         <v>66</v>
       </c>
       <c r="C192">
-        <v>61.0798884</v>
+        <v>61.42910149</v>
       </c>
       <c r="D192">
-        <v>32.688564</v>
+        <v>56.793633</v>
       </c>
       <c r="E192">
-        <v>101.35352</v>
+        <v>67.7192</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4978,13 +4953,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C193">
-        <v>48.751093985</v>
+        <v>40.09646063</v>
       </c>
       <c r="D193">
-        <v>25.665651</v>
+        <v>33.660404</v>
       </c>
       <c r="E193">
-        <v>71.59215500000001</v>
+        <v>46.90035</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5002,13 +4977,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C194">
-        <v>28.83370314</v>
+        <v>25.9134172475</v>
       </c>
       <c r="D194">
-        <v>15.431599</v>
+        <v>23.86318</v>
       </c>
       <c r="E194">
-        <v>43.16601</v>
+        <v>28.45081</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5026,13 +5001,13 @@
         <v>86.3</v>
       </c>
       <c r="C195">
-        <v>15.709777065</v>
+        <v>14.08507483125</v>
       </c>
       <c r="D195">
-        <v>8.183973</v>
+        <v>12.265415</v>
       </c>
       <c r="E195">
-        <v>25.618118</v>
+        <v>18.187012</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5050,13 +5025,13 @@
         <v>89.8</v>
       </c>
       <c r="C196">
-        <v>13.60485431</v>
+        <v>11.4120350175</v>
       </c>
       <c r="D196">
-        <v>7.167289</v>
+        <v>10.106164</v>
       </c>
       <c r="E196">
-        <v>20.897362</v>
+        <v>13.77218</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5074,13 +5049,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C197">
-        <v>12.0955354665</v>
+        <v>9.932439972499999</v>
       </c>
       <c r="D197">
-        <v>6.799099</v>
+        <v>8.877518</v>
       </c>
       <c r="E197">
-        <v>17.430332</v>
+        <v>12.156394</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -5098,13 +5073,13 @@
         <v>100.5</v>
       </c>
       <c r="C198">
-        <v>11.4393029365</v>
+        <v>9.032900521249999</v>
       </c>
       <c r="D198">
-        <v>5.548464</v>
+        <v>8.159303</v>
       </c>
       <c r="E198">
-        <v>19.992758</v>
+        <v>10.540372</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -5122,13 +5097,13 @@
         <v>113</v>
       </c>
       <c r="C199">
-        <v>7.484925411</v>
+        <v>5.32449069625</v>
       </c>
       <c r="D199">
-        <v>3.471127</v>
+        <v>4.7015953</v>
       </c>
       <c r="E199">
-        <v>13.90331</v>
+        <v>6.413897</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5143,21 +5118,16 @@
         </is>
       </c>
       <c r="B200">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C200">
-        <v>3.5319990005</v>
+        <v>2.69317310525</v>
       </c>
       <c r="D200">
-        <v>1.981678</v>
+        <v>2.214932</v>
       </c>
       <c r="E200">
-        <v>5.608956</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>3.3877053</v>
       </c>
     </row>
     <row r="201">
@@ -5170,13 +5140,13 @@
         <v>129.4</v>
       </c>
       <c r="C201">
-        <v>1.3621290933</v>
+        <v>1.788914476</v>
       </c>
       <c r="D201">
-        <v>0.60725856</v>
+        <v>1.5651929</v>
       </c>
       <c r="E201">
-        <v>2.2011743</v>
+        <v>2.031028</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -5194,13 +5164,13 @@
         <v>132.6</v>
       </c>
       <c r="C202">
-        <v>0.0195427346755</v>
+        <v>1.10404311275</v>
       </c>
       <c r="D202">
-        <v>0.001335144</v>
+        <v>1.0690923</v>
       </c>
       <c r="E202">
-        <v>0.04367757</v>
+        <v>1.1449533</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -5218,13 +5188,13 @@
         <v>139.8</v>
       </c>
       <c r="C203">
-        <v>0.020851501239</v>
+        <v>0.018299475585</v>
       </c>
       <c r="D203">
-        <v>0.00219059</v>
+        <v>0.009395242</v>
       </c>
       <c r="E203">
-        <v>0.045549035</v>
+        <v>0.035896182</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -5242,13 +5212,13 @@
         <v>145</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>0.0007442387944375</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>1.7166138E-05</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.0018134117</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -5266,13 +5236,13 @@
         <v>2.58</v>
       </c>
       <c r="C205">
-        <v>13.00000019</v>
+        <v>12.38979880375</v>
       </c>
       <c r="D205">
-        <v>12.999998</v>
+        <v>11.783082</v>
       </c>
       <c r="E205">
-        <v>13.000004</v>
+        <v>12.980644</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -5290,13 +5260,13 @@
         <v>5.333</v>
       </c>
       <c r="C206">
-        <v>13.2917356</v>
+        <v>12.507953345</v>
       </c>
       <c r="D206">
-        <v>12.428332</v>
+        <v>11.708162</v>
       </c>
       <c r="E206">
-        <v>14.223852</v>
+        <v>13.299737</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -5314,13 +5284,13 @@
         <v>7.246</v>
       </c>
       <c r="C207">
-        <v>13.416607135</v>
+        <v>12.2300884675</v>
       </c>
       <c r="D207">
-        <v>12.115024</v>
+        <v>11.332864</v>
       </c>
       <c r="E207">
-        <v>14.906528</v>
+        <v>13.70432</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -5338,13 +5308,13 @@
         <v>11.63</v>
       </c>
       <c r="C208">
-        <v>14.6406856425</v>
+        <v>13.14254632625</v>
       </c>
       <c r="D208">
-        <v>12.820065</v>
+        <v>11.751334</v>
       </c>
       <c r="E208">
-        <v>17.230146</v>
+        <v>14.902087</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -5362,13 +5332,13 @@
         <v>13.82</v>
       </c>
       <c r="C209">
-        <v>15.1165097</v>
+        <v>14.01023538875</v>
       </c>
       <c r="D209">
-        <v>12.422391</v>
+        <v>11.905651</v>
       </c>
       <c r="E209">
-        <v>18.689621</v>
+        <v>16.76112</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -5386,13 +5356,13 @@
         <v>15.97</v>
       </c>
       <c r="C210">
-        <v>16.730695495</v>
+        <v>15.5905787425</v>
       </c>
       <c r="D210">
-        <v>12.968028</v>
+        <v>12.953606</v>
       </c>
       <c r="E210">
-        <v>20.850744</v>
+        <v>19.105349</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -5410,13 +5380,13 @@
         <v>20.44</v>
       </c>
       <c r="C211">
-        <v>18.9996269675</v>
+        <v>17.87146096125</v>
       </c>
       <c r="D211">
-        <v>15.387848</v>
+        <v>15.131147</v>
       </c>
       <c r="E211">
-        <v>23.882162</v>
+        <v>21.822037</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -5434,13 +5404,13 @@
         <v>23.03</v>
       </c>
       <c r="C212">
-        <v>19.459907105</v>
+        <v>19.8932478975</v>
       </c>
       <c r="D212">
-        <v>15.127209</v>
+        <v>17.274883</v>
       </c>
       <c r="E212">
-        <v>24.28067</v>
+        <v>23.828304</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -5458,13 +5428,13 @@
         <v>27.82</v>
       </c>
       <c r="C213">
-        <v>23.522740425</v>
+        <v>23.576090045</v>
       </c>
       <c r="D213">
-        <v>17.507124</v>
+        <v>20.217115</v>
       </c>
       <c r="E213">
-        <v>30.994827</v>
+        <v>27.518118</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -5482,13 +5452,13 @@
         <v>33.9</v>
       </c>
       <c r="C214">
-        <v>33.72890686</v>
+        <v>28.2883386875</v>
       </c>
       <c r="D214">
-        <v>18.987698</v>
+        <v>23.368214</v>
       </c>
       <c r="E214">
-        <v>55.033543</v>
+        <v>33.58961</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -5506,13 +5476,13 @@
         <v>37.71</v>
       </c>
       <c r="C215">
-        <v>48.053233985</v>
+        <v>45.974279105</v>
       </c>
       <c r="D215">
-        <v>34.05008</v>
+        <v>37.137188</v>
       </c>
       <c r="E215">
-        <v>65.675735</v>
+        <v>59.2596</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -5530,13 +5500,13 @@
         <v>41.2</v>
       </c>
       <c r="C216">
-        <v>57.833788985</v>
+        <v>57.4764248975</v>
       </c>
       <c r="D216">
-        <v>38.7821</v>
+        <v>46.328247</v>
       </c>
       <c r="E216">
-        <v>88.78431999999999</v>
+        <v>75.41764000000001</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -5554,13 +5524,13 @@
         <v>47.8</v>
       </c>
       <c r="C217">
-        <v>68.148852565</v>
+        <v>64.32027658</v>
       </c>
       <c r="D217">
-        <v>46.63405</v>
+        <v>53.08046</v>
       </c>
       <c r="E217">
-        <v>91.6386</v>
+        <v>80.90074</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -5578,13 +5548,13 @@
         <v>56</v>
       </c>
       <c r="C218">
-        <v>73.290809705</v>
+        <v>70.53320648</v>
       </c>
       <c r="D218">
-        <v>49.7584</v>
+        <v>59.854443</v>
       </c>
       <c r="E218">
-        <v>101.492325</v>
+        <v>89.29437</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -5602,13 +5572,13 @@
         <v>59.2</v>
       </c>
       <c r="C219">
-        <v>67.611672005</v>
+        <v>65.31765328749999</v>
       </c>
       <c r="D219">
-        <v>46.44044</v>
+        <v>56.016006</v>
       </c>
       <c r="E219">
-        <v>94.65943</v>
+        <v>80.78483</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -5626,13 +5596,13 @@
         <v>61.6</v>
       </c>
       <c r="C220">
-        <v>63.693905485</v>
+        <v>68.631600005</v>
       </c>
       <c r="D220">
-        <v>42.4286</v>
+        <v>53.78229</v>
       </c>
       <c r="E220">
-        <v>85.42855</v>
+        <v>83.56629</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -5650,13 +5620,13 @@
         <v>66</v>
       </c>
       <c r="C221">
-        <v>65.02209068499999</v>
+        <v>66.555606815</v>
       </c>
       <c r="D221">
-        <v>47.975773</v>
+        <v>57.715508</v>
       </c>
       <c r="E221">
-        <v>85.71500399999999</v>
+        <v>77.37634</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -5674,13 +5644,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C222">
-        <v>74.941691015</v>
+        <v>68.08807813</v>
       </c>
       <c r="D222">
-        <v>61.447067</v>
+        <v>58.423206</v>
       </c>
       <c r="E222">
-        <v>88.95405</v>
+        <v>78.15036000000001</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -5698,13 +5668,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C223">
-        <v>63.07956761</v>
+        <v>59.8080619175</v>
       </c>
       <c r="D223">
-        <v>52.664024</v>
+        <v>53.62622</v>
       </c>
       <c r="E223">
-        <v>72.98286</v>
+        <v>67.93423</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -5722,13 +5692,13 @@
         <v>86.3</v>
       </c>
       <c r="C224">
-        <v>52.37301554</v>
+        <v>52.147697355</v>
       </c>
       <c r="D224">
-        <v>40.4873</v>
+        <v>47.41751</v>
       </c>
       <c r="E224">
-        <v>70.08575399999999</v>
+        <v>59.927055</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -5746,13 +5716,13 @@
         <v>89.8</v>
       </c>
       <c r="C225">
-        <v>48.07454964</v>
+        <v>48.141668475</v>
       </c>
       <c r="D225">
-        <v>37.574356</v>
+        <v>41.54791</v>
       </c>
       <c r="E225">
-        <v>59.303265</v>
+        <v>55.143276</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -5770,13 +5740,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C226">
-        <v>45.325355505</v>
+        <v>46.10233914</v>
       </c>
       <c r="D226">
-        <v>35.50488</v>
+        <v>41.280243</v>
       </c>
       <c r="E226">
-        <v>59.4938</v>
+        <v>52.072235</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -5794,13 +5764,13 @@
         <v>100.5</v>
       </c>
       <c r="C227">
-        <v>45.00837648</v>
+        <v>46.6258215875</v>
       </c>
       <c r="D227">
-        <v>30.801355</v>
+        <v>40.481415</v>
       </c>
       <c r="E227">
-        <v>57.90628</v>
+        <v>54.25694</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -5818,13 +5788,13 @@
         <v>113</v>
       </c>
       <c r="C228">
-        <v>41.7420096</v>
+        <v>46.330449245</v>
       </c>
       <c r="D228">
-        <v>33.848362</v>
+        <v>39.995728</v>
       </c>
       <c r="E228">
-        <v>51.15403</v>
+        <v>52.972073</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -5839,21 +5809,16 @@
         </is>
       </c>
       <c r="B229">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C229">
-        <v>38.74028969</v>
+        <v>41.5878310075</v>
       </c>
       <c r="D229">
-        <v>32.841717</v>
+        <v>36.99567</v>
       </c>
       <c r="E229">
-        <v>53.242527</v>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>46.673065</v>
       </c>
     </row>
     <row r="230">
@@ -5866,13 +5831,13 @@
         <v>129.4</v>
       </c>
       <c r="C230">
-        <v>29.18883036</v>
+        <v>35.4406506425</v>
       </c>
       <c r="D230">
-        <v>24.345142</v>
+        <v>30.190372</v>
       </c>
       <c r="E230">
-        <v>45.066067</v>
+        <v>41.77571</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -5890,13 +5855,13 @@
         <v>132.6</v>
       </c>
       <c r="C231">
-        <v>29.74187631</v>
+        <v>33.0604894125</v>
       </c>
       <c r="D231">
-        <v>22.128723</v>
+        <v>27.897978</v>
       </c>
       <c r="E231">
-        <v>57.88699</v>
+        <v>39.368645</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -5914,13 +5879,13 @@
         <v>139.8</v>
       </c>
       <c r="C232">
-        <v>0.55667426886</v>
+        <v>51.418121475</v>
       </c>
       <c r="D232">
-        <v>0.015007973</v>
+        <v>45.7698</v>
       </c>
       <c r="E232">
-        <v>1.4638407</v>
+        <v>57.60589</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -5938,13 +5903,13 @@
         <v>145</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>54.0331885925</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>46.841167</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>58.998947</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -5962,13 +5927,13 @@
         <v>2.58</v>
       </c>
       <c r="C234">
-        <v>36.99999718</v>
+        <v>29.9347184725</v>
       </c>
       <c r="D234">
-        <v>36.999992</v>
+        <v>23.300468</v>
       </c>
       <c r="E234">
-        <v>37.000008</v>
+        <v>37.047855</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -5986,13 +5951,13 @@
         <v>5.333</v>
       </c>
       <c r="C235">
-        <v>35.151812415</v>
+        <v>31.89728431</v>
       </c>
       <c r="D235">
-        <v>28.679052</v>
+        <v>22.48264</v>
       </c>
       <c r="E235">
-        <v>42.845604</v>
+        <v>42.28942</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -6010,13 +5975,13 @@
         <v>7.246</v>
       </c>
       <c r="C236">
-        <v>34.391399695</v>
+        <v>29.8194160825</v>
       </c>
       <c r="D236">
-        <v>26.58646</v>
+        <v>19.813282</v>
       </c>
       <c r="E236">
-        <v>42.76765</v>
+        <v>40.9124</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -6034,13 +5999,13 @@
         <v>11.63</v>
       </c>
       <c r="C237">
-        <v>33.633230035</v>
+        <v>28.265480155</v>
       </c>
       <c r="D237">
-        <v>24.786766</v>
+        <v>18.412157</v>
       </c>
       <c r="E237">
-        <v>45.970074</v>
+        <v>37.41143</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -6058,13 +6023,13 @@
         <v>13.82</v>
       </c>
       <c r="C238">
-        <v>29.64388935</v>
+        <v>25.1868383275</v>
       </c>
       <c r="D238">
-        <v>22.799158</v>
+        <v>17.712965</v>
       </c>
       <c r="E238">
-        <v>40.527657</v>
+        <v>32.59422</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -6082,13 +6047,13 @@
         <v>15.97</v>
       </c>
       <c r="C239">
-        <v>29.27934993</v>
+        <v>25.5106749325</v>
       </c>
       <c r="D239">
-        <v>22.67391</v>
+        <v>18.69875</v>
       </c>
       <c r="E239">
-        <v>41.129257</v>
+        <v>32.247154</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -6106,13 +6071,13 @@
         <v>20.44</v>
       </c>
       <c r="C240">
-        <v>33.611198275</v>
+        <v>28.7809955475</v>
       </c>
       <c r="D240">
-        <v>25.749332</v>
+        <v>21.69636</v>
       </c>
       <c r="E240">
-        <v>48.08984</v>
+        <v>36.61488</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6130,13 +6095,13 @@
         <v>23.03</v>
       </c>
       <c r="C241">
-        <v>35.91548784</v>
+        <v>28.132915405</v>
       </c>
       <c r="D241">
-        <v>26.759838</v>
+        <v>21.022856</v>
       </c>
       <c r="E241">
-        <v>52.331554</v>
+        <v>34.842426</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -6154,13 +6119,13 @@
         <v>27.82</v>
       </c>
       <c r="C242">
-        <v>47.58046296</v>
+        <v>31.70816803</v>
       </c>
       <c r="D242">
-        <v>33.80106</v>
+        <v>24.413168</v>
       </c>
       <c r="E242">
-        <v>71.27443</v>
+        <v>40.427734</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -6178,13 +6143,13 @@
         <v>33.9</v>
       </c>
       <c r="C243">
-        <v>42.520053515</v>
+        <v>29.9278600825</v>
       </c>
       <c r="D243">
-        <v>30.57019</v>
+        <v>22.848219</v>
       </c>
       <c r="E243">
-        <v>63.470444</v>
+        <v>37.874893</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -6202,13 +6167,13 @@
         <v>37.71</v>
       </c>
       <c r="C244">
-        <v>34.624918055</v>
+        <v>27.45055377</v>
       </c>
       <c r="D244">
-        <v>25.499361</v>
+        <v>20.42027</v>
       </c>
       <c r="E244">
-        <v>50.803318</v>
+        <v>37.587</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -6226,13 +6191,13 @@
         <v>41.2</v>
       </c>
       <c r="C245">
-        <v>33.41401827</v>
+        <v>29.13093379</v>
       </c>
       <c r="D245">
-        <v>24.528122</v>
+        <v>21.0337</v>
       </c>
       <c r="E245">
-        <v>48.216118</v>
+        <v>39.892487</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -6250,13 +6215,13 @@
         <v>47.8</v>
       </c>
       <c r="C246">
-        <v>46.12428088</v>
+        <v>36.8925091225</v>
       </c>
       <c r="D246">
-        <v>28.516232</v>
+        <v>24.389027</v>
       </c>
       <c r="E246">
-        <v>75.32867400000001</v>
+        <v>52.13793</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -6274,13 +6239,13 @@
         <v>56</v>
       </c>
       <c r="C247">
-        <v>74.92550183</v>
+        <v>55.348904645</v>
       </c>
       <c r="D247">
-        <v>48.27932</v>
+        <v>38.626156</v>
       </c>
       <c r="E247">
-        <v>131.2338</v>
+        <v>75.40172</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -6298,13 +6263,13 @@
         <v>59.2</v>
       </c>
       <c r="C248">
-        <v>91.84203144</v>
+        <v>62.9531194725</v>
       </c>
       <c r="D248">
-        <v>56.658916</v>
+        <v>42.405006</v>
       </c>
       <c r="E248">
-        <v>157.41103</v>
+        <v>87.50485999999999</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -6322,13 +6287,13 @@
         <v>61.6</v>
       </c>
       <c r="C249">
-        <v>111.837000645</v>
+        <v>75.8465048825</v>
       </c>
       <c r="D249">
-        <v>67.73427599999999</v>
+        <v>51.94189</v>
       </c>
       <c r="E249">
-        <v>189.14449</v>
+        <v>103.65978</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -6346,13 +6311,13 @@
         <v>66</v>
       </c>
       <c r="C250">
-        <v>155.099829715</v>
+        <v>103.50625199</v>
       </c>
       <c r="D250">
-        <v>91.45124</v>
+        <v>68.19304</v>
       </c>
       <c r="E250">
-        <v>282.3532</v>
+        <v>134.5863</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -6370,13 +6335,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C251">
-        <v>241.7924577</v>
+        <v>141.79201291</v>
       </c>
       <c r="D251">
-        <v>124.0675</v>
+        <v>90.40783</v>
       </c>
       <c r="E251">
-        <v>493.86884</v>
+        <v>203.79277</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -6394,13 +6359,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C252">
-        <v>237.88392725</v>
+        <v>143.52906949</v>
       </c>
       <c r="D252">
-        <v>126.52146</v>
+        <v>95.026</v>
       </c>
       <c r="E252">
-        <v>446.92816</v>
+        <v>194.91649</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -6418,13 +6383,13 @@
         <v>86.3</v>
       </c>
       <c r="C253">
-        <v>185.542174855</v>
+        <v>125.827194135</v>
       </c>
       <c r="D253">
-        <v>110.957954</v>
+        <v>88.26224000000001</v>
       </c>
       <c r="E253">
-        <v>317.64838</v>
+        <v>183.67471</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -6442,13 +6407,13 @@
         <v>89.8</v>
       </c>
       <c r="C254">
-        <v>167.947236035</v>
+        <v>116.54894081</v>
       </c>
       <c r="D254">
-        <v>104.584656</v>
+        <v>80.06326</v>
       </c>
       <c r="E254">
-        <v>301.05695</v>
+        <v>151.11449</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -6466,13 +6431,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C255">
-        <v>191.91017263</v>
+        <v>119.3433191725</v>
       </c>
       <c r="D255">
-        <v>113.4554</v>
+        <v>85.661354</v>
       </c>
       <c r="E255">
-        <v>302.11832</v>
+        <v>154.59744</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -6490,13 +6455,13 @@
         <v>100.5</v>
       </c>
       <c r="C256">
-        <v>162.93163629</v>
+        <v>142.558399195</v>
       </c>
       <c r="D256">
-        <v>107.82921</v>
+        <v>99.85945</v>
       </c>
       <c r="E256">
-        <v>287.95853</v>
+        <v>183.07292</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -6514,13 +6479,13 @@
         <v>113</v>
       </c>
       <c r="C257">
-        <v>99.90200423</v>
+        <v>75.98302162500001</v>
       </c>
       <c r="D257">
-        <v>62.964397</v>
+        <v>55.156315</v>
       </c>
       <c r="E257">
-        <v>161.58273</v>
+        <v>104.94363</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -6535,21 +6500,16 @@
         </is>
       </c>
       <c r="B258">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C258">
-        <v>72.182998485</v>
+        <v>53.36672538</v>
       </c>
       <c r="D258">
-        <v>45.94201</v>
+        <v>39.551174</v>
       </c>
       <c r="E258">
-        <v>120.017784</v>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>75.72277</v>
       </c>
     </row>
     <row r="259">
@@ -6562,13 +6522,13 @@
         <v>129.4</v>
       </c>
       <c r="C259">
-        <v>48.269807255</v>
+        <v>44.2961178175</v>
       </c>
       <c r="D259">
-        <v>31.022259</v>
+        <v>33.17833</v>
       </c>
       <c r="E259">
-        <v>82.24728</v>
+        <v>60.717976</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -6586,13 +6546,13 @@
         <v>132.6</v>
       </c>
       <c r="C260">
-        <v>43.351220275</v>
+        <v>32.17073763</v>
       </c>
       <c r="D260">
-        <v>26.57761</v>
+        <v>25.724426</v>
       </c>
       <c r="E260">
-        <v>73.33131</v>
+        <v>43.964024</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -6610,13 +6570,13 @@
         <v>139.8</v>
       </c>
       <c r="C261">
-        <v>42.16157702</v>
+        <v>32.7723876</v>
       </c>
       <c r="D261">
-        <v>26.935747</v>
+        <v>25.780664</v>
       </c>
       <c r="E261">
-        <v>67.82624</v>
+        <v>45.94065</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -6634,13 +6594,13 @@
         <v>145</v>
       </c>
       <c r="C262">
-        <v>29.49798923</v>
+        <v>31.04163151</v>
       </c>
       <c r="D262">
-        <v>15.688658</v>
+        <v>25.628624</v>
       </c>
       <c r="E262">
-        <v>46.21337</v>
+        <v>41.07417</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -6658,13 +6618,13 @@
         <v>2.58</v>
       </c>
       <c r="C263">
-        <v>13.00000023</v>
+        <v>12.5858147975</v>
       </c>
       <c r="D263">
-        <v>12.999998</v>
+        <v>10.78688</v>
       </c>
       <c r="E263">
-        <v>13.000004</v>
+        <v>15.228956</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -6682,13 +6642,13 @@
         <v>5.333</v>
       </c>
       <c r="C264">
-        <v>16.41429909</v>
+        <v>17.26984618875</v>
       </c>
       <c r="D264">
-        <v>12.729451</v>
+        <v>13.768996</v>
       </c>
       <c r="E264">
-        <v>20.55216</v>
+        <v>23.965965</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -6706,13 +6666,13 @@
         <v>7.246</v>
       </c>
       <c r="C265">
-        <v>13.90897372</v>
+        <v>14.64589144375</v>
       </c>
       <c r="D265">
-        <v>9.442523</v>
+        <v>12.302445</v>
       </c>
       <c r="E265">
-        <v>18.499613</v>
+        <v>18.280104</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -6730,13 +6690,13 @@
         <v>11.63</v>
       </c>
       <c r="C266">
-        <v>13.43758331</v>
+        <v>14.43701298</v>
       </c>
       <c r="D266">
-        <v>9.390420000000001</v>
+        <v>10.620743</v>
       </c>
       <c r="E266">
-        <v>18.388048</v>
+        <v>19.159521</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -6754,13 +6714,13 @@
         <v>13.82</v>
       </c>
       <c r="C267">
-        <v>11.9876703225</v>
+        <v>12.35877093375</v>
       </c>
       <c r="D267">
-        <v>8.510771</v>
+        <v>9.404125000000001</v>
       </c>
       <c r="E267">
-        <v>16.362713</v>
+        <v>16.14892</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -6778,13 +6738,13 @@
         <v>15.97</v>
       </c>
       <c r="C268">
-        <v>11.6740574</v>
+        <v>12.04847045125</v>
       </c>
       <c r="D268">
-        <v>8.291069999999999</v>
+        <v>9.116799</v>
       </c>
       <c r="E268">
-        <v>16.464851</v>
+        <v>15.597036</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -6802,13 +6762,13 @@
         <v>20.44</v>
       </c>
       <c r="C269">
-        <v>11.81459494</v>
+        <v>12.15019349375</v>
       </c>
       <c r="D269">
-        <v>8.398479</v>
+        <v>9.437072000000001</v>
       </c>
       <c r="E269">
-        <v>16.684982</v>
+        <v>15.178482</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -6826,13 +6786,13 @@
         <v>23.03</v>
       </c>
       <c r="C270">
-        <v>11.59669247</v>
+        <v>11.09798085</v>
       </c>
       <c r="D270">
-        <v>8.219754999999999</v>
+        <v>8.525149000000001</v>
       </c>
       <c r="E270">
-        <v>16.38713</v>
+        <v>13.859153</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -6850,13 +6810,13 @@
         <v>27.82</v>
       </c>
       <c r="C271">
-        <v>12.6636338925</v>
+        <v>11.46964447375</v>
       </c>
       <c r="D271">
-        <v>8.943292</v>
+        <v>8.746878000000001</v>
       </c>
       <c r="E271">
-        <v>18.021152</v>
+        <v>14.369221</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -6874,13 +6834,13 @@
         <v>33.9</v>
       </c>
       <c r="C272">
-        <v>13.886359325</v>
+        <v>13.28773510875</v>
       </c>
       <c r="D272">
-        <v>9.103806499999999</v>
+        <v>11.074295</v>
       </c>
       <c r="E272">
-        <v>19.623615</v>
+        <v>16.00763</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -6898,13 +6858,13 @@
         <v>37.71</v>
       </c>
       <c r="C273">
-        <v>15.230832565</v>
+        <v>17.7696155175</v>
       </c>
       <c r="D273">
-        <v>10.28406</v>
+        <v>14.346323</v>
       </c>
       <c r="E273">
-        <v>21.931461</v>
+        <v>20.90686</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -6922,13 +6882,13 @@
         <v>41.2</v>
       </c>
       <c r="C274">
-        <v>15.88238704</v>
+        <v>19.273579625</v>
       </c>
       <c r="D274">
-        <v>10.424819</v>
+        <v>15.647112</v>
       </c>
       <c r="E274">
-        <v>23.545506</v>
+        <v>24.084232</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -6946,13 +6906,13 @@
         <v>47.8</v>
       </c>
       <c r="C275">
-        <v>17.875801795</v>
+        <v>24.528751165</v>
       </c>
       <c r="D275">
-        <v>11.964785</v>
+        <v>19.758173</v>
       </c>
       <c r="E275">
-        <v>30.425537</v>
+        <v>30.595497</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -6970,13 +6930,13 @@
         <v>56</v>
       </c>
       <c r="C276">
-        <v>19.62450659</v>
+        <v>32.8349615675</v>
       </c>
       <c r="D276">
-        <v>13.073413</v>
+        <v>25.281012</v>
       </c>
       <c r="E276">
-        <v>29.919336</v>
+        <v>39.233585</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -6994,13 +6954,13 @@
         <v>59.2</v>
       </c>
       <c r="C277">
-        <v>15.7748649875</v>
+        <v>24.3289918425</v>
       </c>
       <c r="D277">
-        <v>10.006963</v>
+        <v>17.514942</v>
       </c>
       <c r="E277">
-        <v>22.37081</v>
+        <v>31.533882</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -7018,13 +6978,13 @@
         <v>61.6</v>
       </c>
       <c r="C278">
-        <v>14.83181322</v>
+        <v>20.3131745225</v>
       </c>
       <c r="D278">
-        <v>9.717200999999999</v>
+        <v>16.161623</v>
       </c>
       <c r="E278">
-        <v>21.086243</v>
+        <v>27.27518</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -7042,13 +7002,13 @@
         <v>66</v>
       </c>
       <c r="C279">
-        <v>13.8281718725</v>
+        <v>20.362019835</v>
       </c>
       <c r="D279">
-        <v>8.462106</v>
+        <v>16.778042</v>
       </c>
       <c r="E279">
-        <v>20.204336</v>
+        <v>27.326038</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -7066,13 +7026,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C280">
-        <v>14.9044517925</v>
+        <v>26.4664155725</v>
       </c>
       <c r="D280">
-        <v>9.852335</v>
+        <v>21.808393</v>
       </c>
       <c r="E280">
-        <v>21.08727</v>
+        <v>33.466335</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -7090,13 +7050,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C281">
-        <v>18.54703514</v>
+        <v>30.716968205</v>
       </c>
       <c r="D281">
-        <v>12.554555</v>
+        <v>26.636055</v>
       </c>
       <c r="E281">
-        <v>27.72103</v>
+        <v>36.529198</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -7114,13 +7074,13 @@
         <v>86.3</v>
       </c>
       <c r="C282">
-        <v>17.7106014025</v>
+        <v>30.9239000025</v>
       </c>
       <c r="D282">
-        <v>11.005371</v>
+        <v>24.952341</v>
       </c>
       <c r="E282">
-        <v>26.4599</v>
+        <v>35.544014</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -7138,13 +7098,13 @@
         <v>89.8</v>
       </c>
       <c r="C283">
-        <v>16.9504950375</v>
+        <v>24.2767933725</v>
       </c>
       <c r="D283">
-        <v>10.023346</v>
+        <v>19.606596</v>
       </c>
       <c r="E283">
-        <v>26.00928</v>
+        <v>30.542925</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -7162,13 +7122,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C284">
-        <v>16.053521655</v>
+        <v>23.0380138425</v>
       </c>
       <c r="D284">
-        <v>9.811838</v>
+        <v>18.806847</v>
       </c>
       <c r="E284">
-        <v>24.573753</v>
+        <v>28.05302</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -7186,13 +7146,13 @@
         <v>100.5</v>
       </c>
       <c r="C285">
-        <v>14.7756852025</v>
+        <v>21.5041867225</v>
       </c>
       <c r="D285">
-        <v>9.588221000000001</v>
+        <v>17.742338</v>
       </c>
       <c r="E285">
-        <v>21.853626</v>
+        <v>25.794474</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -7210,13 +7170,13 @@
         <v>113</v>
       </c>
       <c r="C286">
-        <v>13.7563799875</v>
+        <v>17.36085221</v>
       </c>
       <c r="D286">
-        <v>9.561373</v>
+        <v>14.1196</v>
       </c>
       <c r="E286">
-        <v>20.294348</v>
+        <v>22.317368</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -7231,21 +7191,16 @@
         </is>
       </c>
       <c r="B287">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C287">
-        <v>11.714847875</v>
+        <v>14.98159737625</v>
       </c>
       <c r="D287">
-        <v>8.653981999999999</v>
+        <v>12.528667</v>
       </c>
       <c r="E287">
-        <v>18.440798</v>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>20.00295</v>
       </c>
     </row>
     <row r="288">
@@ -7258,13 +7213,13 @@
         <v>129.4</v>
       </c>
       <c r="C288">
-        <v>9.5573328525</v>
+        <v>13.2201171175</v>
       </c>
       <c r="D288">
-        <v>6.693622</v>
+        <v>11.25067</v>
       </c>
       <c r="E288">
-        <v>15.257088</v>
+        <v>18.203026</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -7282,13 +7237,13 @@
         <v>132.6</v>
       </c>
       <c r="C289">
-        <v>9.823856163849999</v>
+        <v>13.08618150875</v>
       </c>
       <c r="D289">
-        <v>0.91397667</v>
+        <v>11.377798</v>
       </c>
       <c r="E289">
-        <v>16.334387</v>
+        <v>17.393192</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -7306,13 +7261,13 @@
         <v>139.8</v>
       </c>
       <c r="C290">
-        <v>0.12835522712</v>
+        <v>17.21930339875</v>
       </c>
       <c r="D290">
-        <v>0.00442636</v>
+        <v>15.672365</v>
       </c>
       <c r="E290">
-        <v>0.5543912600000001</v>
+        <v>20.208885</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -7330,13 +7285,13 @@
         <v>145</v>
       </c>
       <c r="C291">
-        <v>0</v>
+        <v>21.5685240625</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>19.785334</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>23.649055</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -7354,13 +7309,13 @@
         <v>2.58</v>
       </c>
       <c r="C292">
-        <v>21.99999997</v>
+        <v>35.6026617425</v>
       </c>
       <c r="D292">
-        <v>21.999994</v>
+        <v>28.2523</v>
       </c>
       <c r="E292">
-        <v>22.000006</v>
+        <v>43.979527</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
@@ -7378,13 +7333,13 @@
         <v>5.333</v>
       </c>
       <c r="C293">
-        <v>22.518022925</v>
+        <v>42.9641556175</v>
       </c>
       <c r="D293">
-        <v>13.476202</v>
+        <v>34.60232</v>
       </c>
       <c r="E293">
-        <v>39.829887</v>
+        <v>51.447853</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -7402,13 +7357,13 @@
         <v>7.246</v>
       </c>
       <c r="C294">
-        <v>23.30647189</v>
+        <v>31.1054955875</v>
       </c>
       <c r="D294">
-        <v>15.769798</v>
+        <v>26.073662</v>
       </c>
       <c r="E294">
-        <v>39.96119</v>
+        <v>35.902542</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -7426,13 +7381,13 @@
         <v>11.63</v>
       </c>
       <c r="C295">
-        <v>23.8428352975</v>
+        <v>30.2700976025</v>
       </c>
       <c r="D295">
-        <v>15.724691</v>
+        <v>25.562666</v>
       </c>
       <c r="E295">
-        <v>43.58697</v>
+        <v>36.455685</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -7450,13 +7405,13 @@
         <v>13.82</v>
       </c>
       <c r="C296">
-        <v>25.791905125</v>
+        <v>33.7433147225</v>
       </c>
       <c r="D296">
-        <v>15.877066</v>
+        <v>26.770842</v>
       </c>
       <c r="E296">
-        <v>48.310776</v>
+        <v>40.965687</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -7474,13 +7429,13 @@
         <v>15.97</v>
       </c>
       <c r="C297">
-        <v>27.833336915</v>
+        <v>36.87580599</v>
       </c>
       <c r="D297">
-        <v>16.146385</v>
+        <v>33.243496</v>
       </c>
       <c r="E297">
-        <v>52.773003</v>
+        <v>45.19511</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -7498,13 +7453,13 @@
         <v>20.44</v>
       </c>
       <c r="C298">
-        <v>27.832879265</v>
+        <v>36.423215995</v>
       </c>
       <c r="D298">
-        <v>16.553535</v>
+        <v>33.64114</v>
       </c>
       <c r="E298">
-        <v>48.371044</v>
+        <v>43.274193</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -7522,13 +7477,13 @@
         <v>23.03</v>
       </c>
       <c r="C299">
-        <v>26.030618515</v>
+        <v>34.168053605</v>
       </c>
       <c r="D299">
-        <v>15.652599</v>
+        <v>30.55766</v>
       </c>
       <c r="E299">
-        <v>45.869717</v>
+        <v>40.55619</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -7546,13 +7501,13 @@
         <v>27.82</v>
       </c>
       <c r="C300">
-        <v>23.5503261075</v>
+        <v>30.172048395</v>
       </c>
       <c r="D300">
-        <v>14.255659</v>
+        <v>27.862202</v>
       </c>
       <c r="E300">
-        <v>41.900604</v>
+        <v>34.80134</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -7570,13 +7525,13 @@
         <v>33.9</v>
       </c>
       <c r="C301">
-        <v>21.803916965</v>
+        <v>28.259480135</v>
       </c>
       <c r="D301">
-        <v>13.236566</v>
+        <v>25.860685</v>
       </c>
       <c r="E301">
-        <v>37.863434</v>
+        <v>33.6088</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -7594,13 +7549,13 @@
         <v>37.71</v>
       </c>
       <c r="C302">
-        <v>26.481664795</v>
+        <v>31.542470185</v>
       </c>
       <c r="D302">
-        <v>14.81667</v>
+        <v>27.2297</v>
       </c>
       <c r="E302">
-        <v>57.378845</v>
+        <v>38.822308</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -7618,13 +7573,13 @@
         <v>41.2</v>
       </c>
       <c r="C303">
-        <v>31.715219015</v>
+        <v>37.1287275525</v>
       </c>
       <c r="D303">
-        <v>16.331558</v>
+        <v>30.724672</v>
       </c>
       <c r="E303">
-        <v>64.19473000000001</v>
+        <v>47.88197</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -7642,13 +7597,13 @@
         <v>47.8</v>
       </c>
       <c r="C304">
-        <v>30.790377645</v>
+        <v>38.715218695</v>
       </c>
       <c r="D304">
-        <v>16.049326</v>
+        <v>31.742313</v>
       </c>
       <c r="E304">
-        <v>56.49252</v>
+        <v>47.19488</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -7666,13 +7621,13 @@
         <v>56</v>
       </c>
       <c r="C305">
-        <v>22.1332086625</v>
+        <v>25.9263766825</v>
       </c>
       <c r="D305">
-        <v>11.896141</v>
+        <v>22.764029</v>
       </c>
       <c r="E305">
-        <v>41.67666</v>
+        <v>29.42788</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -7690,13 +7645,13 @@
         <v>59.2</v>
       </c>
       <c r="C306">
-        <v>15.15609701</v>
+        <v>19.091708015</v>
       </c>
       <c r="D306">
-        <v>9.262013</v>
+        <v>16.219233</v>
       </c>
       <c r="E306">
-        <v>25.806765</v>
+        <v>21.836426</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -7714,13 +7669,13 @@
         <v>61.6</v>
       </c>
       <c r="C307">
-        <v>14.867598405</v>
+        <v>19.5566689975</v>
       </c>
       <c r="D307">
-        <v>8.841317999999999</v>
+        <v>15.571814</v>
       </c>
       <c r="E307">
-        <v>25.274853</v>
+        <v>22.856617</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -7738,13 +7693,13 @@
         <v>66</v>
       </c>
       <c r="C308">
-        <v>15.1867813075</v>
+        <v>21.86434119</v>
       </c>
       <c r="D308">
-        <v>8.634823000000001</v>
+        <v>16.599602</v>
       </c>
       <c r="E308">
-        <v>26.839846</v>
+        <v>24.730268</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -7762,13 +7717,13 @@
         <v>72.09999999999999</v>
       </c>
       <c r="C309">
-        <v>15.3675226825</v>
+        <v>25.1987246025</v>
       </c>
       <c r="D309">
-        <v>9.570430999999999</v>
+        <v>22.145916</v>
       </c>
       <c r="E309">
-        <v>24.702358</v>
+        <v>28.83356</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -7786,13 +7741,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="C310">
-        <v>15.5574176575</v>
+        <v>23.94985061</v>
       </c>
       <c r="D310">
-        <v>9.578334999999999</v>
+        <v>20.649702</v>
       </c>
       <c r="E310">
-        <v>25.477827</v>
+        <v>26.577627</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -7810,13 +7765,13 @@
         <v>86.3</v>
       </c>
       <c r="C311">
-        <v>10.6820132485</v>
+        <v>16.45087311125</v>
       </c>
       <c r="D311">
-        <v>6.7333045</v>
+        <v>14.353332</v>
       </c>
       <c r="E311">
-        <v>17.48741</v>
+        <v>18.5559</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -7834,13 +7789,13 @@
         <v>89.8</v>
       </c>
       <c r="C312">
-        <v>8.774475065500001</v>
+        <v>13.17862104</v>
       </c>
       <c r="D312">
-        <v>5.7439218</v>
+        <v>11.04657</v>
       </c>
       <c r="E312">
-        <v>14.519532</v>
+        <v>14.938664</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -7858,13 +7813,13 @@
         <v>93.90000000000001</v>
       </c>
       <c r="C313">
-        <v>6.947783402</v>
+        <v>10.4793784725</v>
       </c>
       <c r="D313">
-        <v>5.028377</v>
+        <v>9.089786999999999</v>
       </c>
       <c r="E313">
-        <v>10.940376</v>
+        <v>12.408472</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -7882,13 +7837,13 @@
         <v>100.5</v>
       </c>
       <c r="C314">
-        <v>5.8678728965</v>
+        <v>9.13759437625</v>
       </c>
       <c r="D314">
-        <v>3.863173</v>
+        <v>8.323361</v>
       </c>
       <c r="E314">
-        <v>9.205845</v>
+        <v>10.468796</v>
       </c>
       <c r="F314" t="inlineStr">
         <is>
@@ -7906,13 +7861,13 @@
         <v>113</v>
       </c>
       <c r="C315">
-        <v>3.840049864</v>
+        <v>5.15394282225</v>
       </c>
       <c r="D315">
-        <v>2.7570388</v>
+        <v>4.656675</v>
       </c>
       <c r="E315">
-        <v>6.1341615</v>
+        <v>5.7946596</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -7927,21 +7882,16 @@
         </is>
       </c>
       <c r="B316">
-        <v>125</v>
+        <v>121.4</v>
       </c>
       <c r="C316">
-        <v>2.11708442</v>
+        <v>2.30886840925</v>
       </c>
       <c r="D316">
-        <v>1.4172122</v>
+        <v>2.040125</v>
       </c>
       <c r="E316">
-        <v>3.319107</v>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>Aptian</t>
-        </is>
+        <v>2.6201098</v>
       </c>
     </row>
     <row r="317">
@@ -7954,13 +7904,13 @@
         <v>129.4</v>
       </c>
       <c r="C317">
-        <v>1.30845493415</v>
+        <v>1.49903632075</v>
       </c>
       <c r="D317">
-        <v>0.6725917</v>
+        <v>1.3220203</v>
       </c>
       <c r="E317">
-        <v>2.43997</v>
+        <v>1.642077</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -7978,13 +7928,13 @@
         <v>132.6</v>
       </c>
       <c r="C318">
-        <v>0.43225410685</v>
+        <v>0.07465230588750001</v>
       </c>
       <c r="D318">
-        <v>0.17735398</v>
+        <v>0.03409159</v>
       </c>
       <c r="E318">
-        <v>0.64395905</v>
+        <v>0.12347901</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
@@ -8002,13 +7952,13 @@
         <v>139.8</v>
       </c>
       <c r="C319">
-        <v>0.25050832605</v>
+        <v>0.000155022740445</v>
       </c>
       <c r="D319">
-        <v>0.12471628</v>
+        <v>8.08239E-05</v>
       </c>
       <c r="E319">
-        <v>0.3501717</v>
+        <v>0.00020718575</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
@@ -8026,13 +7976,13 @@
         <v>145</v>
       </c>
       <c r="C320">
-        <v>0</v>
+        <v>0.0001162144542975</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>4.2557716E-05</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>0.00028026104</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
